--- a/Тест-кейсыIVI.xlsx
+++ b/Тест-кейсыIVI.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11745" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11745" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Форма оплаты" sheetId="4" r:id="rId1"/>
     <sheet name="Главная страница" sheetId="5" r:id="rId2"/>
     <sheet name="Android_" sheetId="7" r:id="rId3"/>
+    <sheet name="SmartTV" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="79">
   <si>
     <t>Ссылка на баг-репорт</t>
   </si>
@@ -255,6 +256,44 @@
   <si>
     <t>Readme 9T (Android 12.0.5.0(QJQRXM)/приложение ИВИ версия 25.10.3</t>
   </si>
+  <si>
+    <t>Главная страница ИВИ</t>
+  </si>
+  <si>
+    <t>Смарт-ТВ LG (webOS), интернет стабилен.
+.</t>
+  </si>
+  <si>
+    <t>Пользователь авторизован, сериал доступен к просмотру</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Включен СМАРТ ТВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Нажать «Смотреть» (эпизод 1) → дождаться запуска плеера в полный экран.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Наблюдать кадр 30–60 сек.; при необходимости свернуть/развернуть плеер, вызвать/скрыть контроллы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перейти в блок «Сериалы» → открыть карточку сериала "Месть служанки"
+</t>
+  </si>
+  <si>
+    <t>Видео проигрывается на весь доступный экран без артефактов;
+Нет серых полос/перекрытий, кадр не обрезан;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На экране присутствует серая полоса (прямоугольник), частично закрывающая изображение;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Серый бар при воспроизведении сериала на LG TV </t>
+  </si>
 </sst>
 </file>
 
@@ -454,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -551,6 +590,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -620,20 +670,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -663,18 +713,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -915,18 +961,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
       <c r="K1" s="5"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -949,8 +995,8 @@
       <c r="AD1" s="6"/>
     </row>
     <row r="2" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="16"/>
@@ -1032,68 +1078,68 @@
       <c r="AD3" s="6"/>
     </row>
     <row r="4" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
     </row>
     <row r="5" spans="1:30" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36">
+      <c r="A5" s="41">
         <v>1</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="65">
         <v>1</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="57"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
@@ -1116,16 +1162,16 @@
       <c r="AD5" s="10"/>
     </row>
     <row r="6" spans="1:30" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="58"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="63"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -1148,16 +1194,16 @@
       <c r="AD6" s="10"/>
     </row>
     <row r="7" spans="1:30" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="58"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -1180,16 +1226,16 @@
       <c r="AD7" s="10"/>
     </row>
     <row r="8" spans="1:30" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="59"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="64"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -1212,34 +1258,34 @@
       <c r="AD8" s="10"/>
     </row>
     <row r="9" spans="1:30" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36">
+      <c r="A9" s="41">
         <v>2</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="65">
         <v>1</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="57"/>
+      <c r="J9" s="62"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -1262,16 +1308,16 @@
       <c r="AD9" s="10"/>
     </row>
     <row r="10" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
@@ -1294,16 +1340,16 @@
       <c r="AD10" s="10"/>
     </row>
     <row r="11" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -1326,16 +1372,16 @@
       <c r="AD11" s="10"/>
     </row>
     <row r="12" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -1358,34 +1404,34 @@
       <c r="AD12" s="10"/>
     </row>
     <row r="13" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36">
+      <c r="A13" s="41">
         <v>3</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="49">
         <v>1</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="43"/>
+      <c r="J13" s="48"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
@@ -1408,16 +1454,16 @@
       <c r="AD13" s="10"/>
     </row>
     <row r="14" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
@@ -1440,16 +1486,16 @@
       <c r="AD14" s="10"/>
     </row>
     <row r="15" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -1472,16 +1518,16 @@
       <c r="AD15" s="10"/>
     </row>
     <row r="16" spans="1:30" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -1504,16 +1550,16 @@
       <c r="AD16" s="10"/>
     </row>
     <row r="17" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
@@ -5035,19 +5081,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
       <c r="L1" s="5"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
@@ -5070,8 +5116,8 @@
       <c r="AE1" s="6"/>
     </row>
     <row r="2" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="16"/>
@@ -5157,48 +5203,48 @@
       <c r="AE3" s="6"/>
     </row>
     <row r="4" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
       <c r="AB4" s="22"/>
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="22"/>
     </row>
     <row r="5" spans="1:31" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36">
+      <c r="A5" s="41">
         <v>1</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="44" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="18">
@@ -5208,19 +5254,19 @@
         <v>28</v>
       </c>
       <c r="F5" s="23"/>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="57"/>
+      <c r="K5" s="62"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
@@ -5243,9 +5289,9 @@
       <c r="AE5" s="10"/>
     </row>
     <row r="6" spans="1:31" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="19">
         <v>2</v>
       </c>
@@ -5253,11 +5299,11 @@
         <v>29</v>
       </c>
       <c r="F6" s="26"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="58"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
@@ -5280,9 +5326,9 @@
       <c r="AE6" s="10"/>
     </row>
     <row r="7" spans="1:31" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="37"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="19">
         <v>3</v>
       </c>
@@ -5290,11 +5336,11 @@
         <v>30</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="58"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="63"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
@@ -5317,17 +5363,17 @@
       <c r="AE7" s="10"/>
     </row>
     <row r="8" spans="1:31" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="20"/>
       <c r="E8" s="25"/>
       <c r="F8" s="24"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="59"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="64"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -5350,10 +5396,10 @@
       <c r="AE8" s="10"/>
     </row>
     <row r="9" spans="1:31" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36">
+      <c r="A9" s="41">
         <v>2</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="44" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="27" t="s">
@@ -5366,19 +5412,19 @@
         <v>34</v>
       </c>
       <c r="F9" s="27"/>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="64" t="s">
+      <c r="J9" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="65" t="s">
+      <c r="K9" s="68" t="s">
         <v>53</v>
       </c>
       <c r="L9" s="10"/>
@@ -5403,8 +5449,8 @@
       <c r="AE9" s="10"/>
     </row>
     <row r="10" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="32" t="s">
         <v>50</v>
       </c>
@@ -5415,11 +5461,11 @@
         <v>42</v>
       </c>
       <c r="F10" s="27"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
@@ -5442,19 +5488,19 @@
       <c r="AE10" s="10"/>
     </row>
     <row r="11" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
@@ -5477,19 +5523,19 @@
       <c r="AE11" s="10"/>
     </row>
     <row r="12" spans="1:31" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
@@ -5512,13 +5558,13 @@
       <c r="AE12" s="10"/>
     </row>
     <row r="13" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36">
+      <c r="A13" s="41">
         <v>3</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="44" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="28">
@@ -5528,19 +5574,19 @@
         <v>41</v>
       </c>
       <c r="F13" s="27"/>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="61" t="s">
+      <c r="H13" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="61" t="s">
+      <c r="I13" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="64" t="s">
+      <c r="J13" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="75"/>
+      <c r="K13" s="80"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
@@ -5563,9 +5609,9 @@
       <c r="AE13" s="10"/>
     </row>
     <row r="14" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="28">
         <v>2</v>
       </c>
@@ -5573,11 +5619,11 @@
         <v>42</v>
       </c>
       <c r="F14" s="27"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
@@ -5600,13 +5646,13 @@
       <c r="AE14" s="10"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36">
+      <c r="A15" s="41">
         <v>4</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="44" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="28">
@@ -5618,24 +5664,24 @@
       <c r="F15" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="42" t="s">
+      <c r="J15" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="43"/>
+      <c r="K15" s="48"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="28">
         <v>2</v>
       </c>
@@ -5643,50 +5689,50 @@
         <v>48</v>
       </c>
       <c r="F16" s="27"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="73"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="78"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="30"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="73"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="78"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="30"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="73"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="78"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="68"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="30"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="74"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="79"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
@@ -9816,7 +9862,7 @@
   </sheetPr>
   <dimension ref="A1:AE689"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K2" sqref="K1:K1048576"/>
     </sheetView>
@@ -9838,19 +9884,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
       <c r="L1" s="5"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
@@ -9873,8 +9919,8 @@
       <c r="AE1" s="6"/>
     </row>
     <row r="2" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="16"/>
@@ -9960,45 +10006,45 @@
       <c r="AE3" s="6"/>
     </row>
     <row r="4" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
       <c r="AB4" s="34"/>
       <c r="AC4" s="34"/>
       <c r="AD4" s="34"/>
       <c r="AE4" s="34"/>
     </row>
     <row r="5" spans="1:31" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36">
+      <c r="A5" s="41">
         <v>1</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="44" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="27" t="s">
@@ -10011,19 +10057,19 @@
         <v>57</v>
       </c>
       <c r="F5" s="27"/>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="57"/>
+      <c r="K5" s="62"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
@@ -10046,9 +10092,9 @@
       <c r="AE5" s="10"/>
     </row>
     <row r="6" spans="1:31" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="76" t="s">
+      <c r="A6" s="42"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="39" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="35">
@@ -10058,11 +10104,11 @@
         <v>65</v>
       </c>
       <c r="F6" s="27"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="58"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
@@ -10085,8 +10131,8 @@
       <c r="AE6" s="10"/>
     </row>
     <row r="7" spans="1:31" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="27" t="s">
         <v>28</v>
       </c>
@@ -10097,11 +10143,11 @@
         <v>58</v>
       </c>
       <c r="F7" s="27"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="58"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="63"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
@@ -10124,8 +10170,8 @@
       <c r="AE7" s="10"/>
     </row>
     <row r="8" spans="1:31" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="27" t="s">
         <v>29</v>
       </c>
@@ -10136,11 +10182,11 @@
         <v>59</v>
       </c>
       <c r="F8" s="29"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="59"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="64"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -10163,10 +10209,10 @@
       <c r="AE8" s="10"/>
     </row>
     <row r="9" spans="1:31" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="78">
+      <c r="A9" s="83">
         <v>2</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="69" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="27" t="s">
@@ -10182,16 +10228,16 @@
       <c r="G9" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="64" t="s">
+      <c r="J9" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="65"/>
+      <c r="K9" s="68"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
@@ -10214,9 +10260,9 @@
       <c r="AE9" s="10"/>
     </row>
     <row r="10" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="76" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="39" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="35">
@@ -10226,11 +10272,11 @@
         <v>63</v>
       </c>
       <c r="F10" s="27"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
@@ -14328,12 +14374,4520 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:AA4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="K5:K8"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5 J9">
+      <formula1>"-,Passed,Failed,Blocked,Skipped"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AE689"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" style="36" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="17" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="36" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" style="36" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="36"/>
+    <col min="11" max="11" width="33.42578125" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.5703125" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+    </row>
+    <row r="2" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="60"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+    </row>
+    <row r="3" spans="1:31" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+    </row>
+    <row r="4" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+    </row>
+    <row r="5" spans="1:31" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="41">
+        <v>1</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="38">
+        <v>1</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="62"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+    </row>
+    <row r="6" spans="1:31" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="42"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="38">
+        <v>2</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+    </row>
+    <row r="7" spans="1:31" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="42"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="38">
+        <v>3</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+    </row>
+    <row r="8" spans="1:31" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="43"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+    </row>
+    <row r="9" spans="1:31" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="83"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+    </row>
+    <row r="10" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="67"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+    </row>
+    <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="11"/>
+      <c r="B57" s="12"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="11"/>
+      <c r="B59" s="12"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="11"/>
+      <c r="B60" s="12"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="11"/>
+      <c r="B61" s="12"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="11"/>
+      <c r="B62" s="12"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="11"/>
+      <c r="B63" s="12"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="11"/>
+      <c r="B64" s="12"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="11"/>
+      <c r="B65" s="12"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="11"/>
+      <c r="B66" s="12"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="11"/>
+      <c r="B67" s="12"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="11"/>
+      <c r="B68" s="12"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="11"/>
+      <c r="B69" s="12"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="11"/>
+      <c r="B70" s="12"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="11"/>
+      <c r="B71" s="12"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="11"/>
+      <c r="B72" s="12"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="11"/>
+      <c r="B73" s="12"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="11"/>
+      <c r="B74" s="12"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="11"/>
+      <c r="B75" s="12"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="11"/>
+      <c r="B76" s="12"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="11"/>
+      <c r="B77" s="12"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="11"/>
+      <c r="B79" s="12"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="11"/>
+      <c r="B80" s="12"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="11"/>
+      <c r="B81" s="12"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="11"/>
+      <c r="B82" s="12"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="11"/>
+      <c r="B83" s="12"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="11"/>
+      <c r="B84" s="12"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="11"/>
+      <c r="B85" s="12"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="11"/>
+      <c r="B86" s="12"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="11"/>
+      <c r="B87" s="12"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="11"/>
+      <c r="B88" s="12"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="11"/>
+      <c r="B89" s="12"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="11"/>
+      <c r="B90" s="12"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="11"/>
+      <c r="B91" s="12"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="11"/>
+      <c r="B92" s="12"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="11"/>
+      <c r="B93" s="12"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="11"/>
+      <c r="B94" s="12"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="11"/>
+      <c r="B95" s="12"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="11"/>
+      <c r="B96" s="12"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="11"/>
+      <c r="B97" s="12"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="11"/>
+      <c r="B98" s="12"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="11"/>
+      <c r="B99" s="12"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="11"/>
+      <c r="B100" s="12"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="11"/>
+      <c r="B101" s="12"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="11"/>
+      <c r="B102" s="12"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="11"/>
+      <c r="B103" s="12"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="11"/>
+      <c r="B104" s="12"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="11"/>
+      <c r="B105" s="12"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="11"/>
+      <c r="B106" s="12"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="11"/>
+      <c r="B107" s="12"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="11"/>
+      <c r="B108" s="12"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="11"/>
+      <c r="B109" s="12"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="11"/>
+      <c r="B110" s="12"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="11"/>
+      <c r="B111" s="12"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="11"/>
+      <c r="B112" s="12"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+    </row>
+    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="11"/>
+      <c r="B113" s="12"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+    </row>
+    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="11"/>
+      <c r="B114" s="12"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="11"/>
+      <c r="B115" s="12"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+    </row>
+    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="11"/>
+      <c r="B116" s="12"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+    </row>
+    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="11"/>
+      <c r="B117" s="12"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+    </row>
+    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="11"/>
+      <c r="B118" s="12"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+    </row>
+    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="11"/>
+      <c r="B119" s="12"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="11"/>
+      <c r="B120" s="12"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+    </row>
+    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="11"/>
+      <c r="B121" s="12"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+    </row>
+    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="11"/>
+      <c r="B122" s="12"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+    </row>
+    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="11"/>
+      <c r="B123" s="12"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+    </row>
+    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="11"/>
+      <c r="B124" s="12"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+    </row>
+    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="11"/>
+      <c r="B125" s="12"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+    </row>
+    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="11"/>
+      <c r="B126" s="12"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+    </row>
+    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="11"/>
+      <c r="B127" s="12"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+    </row>
+    <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="11"/>
+      <c r="B128" s="12"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+    </row>
+    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="11"/>
+      <c r="B129" s="12"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+    </row>
+    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="11"/>
+      <c r="B130" s="12"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+    </row>
+    <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="11"/>
+      <c r="B131" s="12"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+    </row>
+    <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="11"/>
+      <c r="B132" s="12"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+    </row>
+    <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="11"/>
+      <c r="B133" s="12"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="11"/>
+      <c r="B134" s="12"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+    </row>
+    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="11"/>
+      <c r="B135" s="12"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+    </row>
+    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="11"/>
+      <c r="B136" s="12"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+    </row>
+    <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="11"/>
+      <c r="B137" s="12"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
+    </row>
+    <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="11"/>
+      <c r="B138" s="12"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+    </row>
+    <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="11"/>
+      <c r="B139" s="12"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+    </row>
+    <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="11"/>
+      <c r="B140" s="12"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+    </row>
+    <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="11"/>
+      <c r="B141" s="12"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+    </row>
+    <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="11"/>
+      <c r="B142" s="12"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+    </row>
+    <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="11"/>
+      <c r="B143" s="12"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
+    </row>
+    <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="11"/>
+      <c r="B144" s="12"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="11"/>
+      <c r="B145" s="12"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="11"/>
+      <c r="B146" s="12"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="11"/>
+      <c r="B147" s="12"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="11"/>
+      <c r="B148" s="12"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
+    </row>
+    <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="11"/>
+      <c r="B149" s="12"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="11"/>
+      <c r="B150" s="12"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+    </row>
+    <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="11"/>
+      <c r="B151" s="12"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="11"/>
+      <c r="B152" s="12"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="11"/>
+      <c r="B153" s="12"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="11"/>
+      <c r="B154" s="12"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+    </row>
+    <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="11"/>
+      <c r="B155" s="12"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+    </row>
+    <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="11"/>
+      <c r="B156" s="12"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="11"/>
+      <c r="B157" s="12"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13"/>
+    </row>
+    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="11"/>
+      <c r="B158" s="12"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+    </row>
+    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="11"/>
+      <c r="B159" s="12"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
+    </row>
+    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="11"/>
+      <c r="B160" s="12"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+    </row>
+    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="11"/>
+      <c r="B161" s="12"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+    </row>
+    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="11"/>
+      <c r="B162" s="12"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
+    </row>
+    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="11"/>
+      <c r="B163" s="12"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13"/>
+    </row>
+    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="11"/>
+      <c r="B164" s="12"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
+    </row>
+    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="11"/>
+      <c r="B165" s="12"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
+    </row>
+    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="11"/>
+      <c r="B166" s="12"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
+    </row>
+    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="11"/>
+      <c r="B167" s="12"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="13"/>
+    </row>
+    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="11"/>
+      <c r="B168" s="12"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
+    </row>
+    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="11"/>
+      <c r="B169" s="12"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13"/>
+    </row>
+    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="11"/>
+      <c r="B170" s="12"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="13"/>
+    </row>
+    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="11"/>
+      <c r="B171" s="12"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13"/>
+    </row>
+    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="11"/>
+      <c r="B172" s="12"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13"/>
+    </row>
+    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="11"/>
+      <c r="B173" s="12"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="13"/>
+    </row>
+    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="11"/>
+      <c r="B174" s="12"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13"/>
+    </row>
+    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="11"/>
+      <c r="B175" s="12"/>
+      <c r="E175" s="13"/>
+      <c r="F175" s="13"/>
+    </row>
+    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="11"/>
+      <c r="B176" s="12"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13"/>
+    </row>
+    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="11"/>
+      <c r="B177" s="12"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="13"/>
+    </row>
+    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="11"/>
+      <c r="B178" s="12"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
+    </row>
+    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="11"/>
+      <c r="B179" s="12"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="13"/>
+    </row>
+    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="11"/>
+      <c r="B180" s="12"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="13"/>
+    </row>
+    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="11"/>
+      <c r="B181" s="12"/>
+      <c r="E181" s="13"/>
+      <c r="F181" s="13"/>
+    </row>
+    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="11"/>
+      <c r="B182" s="12"/>
+      <c r="E182" s="13"/>
+      <c r="F182" s="13"/>
+    </row>
+    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="11"/>
+      <c r="B183" s="12"/>
+      <c r="E183" s="13"/>
+      <c r="F183" s="13"/>
+    </row>
+    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="11"/>
+      <c r="B184" s="12"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="13"/>
+    </row>
+    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="11"/>
+      <c r="B185" s="12"/>
+      <c r="E185" s="13"/>
+      <c r="F185" s="13"/>
+    </row>
+    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="11"/>
+      <c r="B186" s="12"/>
+      <c r="E186" s="13"/>
+      <c r="F186" s="13"/>
+    </row>
+    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="11"/>
+      <c r="B187" s="12"/>
+      <c r="E187" s="13"/>
+      <c r="F187" s="13"/>
+    </row>
+    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="11"/>
+      <c r="B188" s="12"/>
+      <c r="E188" s="13"/>
+      <c r="F188" s="13"/>
+    </row>
+    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="11"/>
+      <c r="B189" s="12"/>
+      <c r="E189" s="13"/>
+      <c r="F189" s="13"/>
+    </row>
+    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="11"/>
+      <c r="B190" s="12"/>
+      <c r="E190" s="13"/>
+      <c r="F190" s="13"/>
+    </row>
+    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="11"/>
+      <c r="B191" s="12"/>
+      <c r="E191" s="13"/>
+      <c r="F191" s="13"/>
+    </row>
+    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="11"/>
+      <c r="B192" s="12"/>
+      <c r="E192" s="13"/>
+      <c r="F192" s="13"/>
+    </row>
+    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="11"/>
+      <c r="B193" s="12"/>
+      <c r="E193" s="13"/>
+      <c r="F193" s="13"/>
+    </row>
+    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="11"/>
+      <c r="B194" s="12"/>
+      <c r="E194" s="13"/>
+      <c r="F194" s="13"/>
+    </row>
+    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="11"/>
+      <c r="B195" s="12"/>
+      <c r="E195" s="13"/>
+      <c r="F195" s="13"/>
+    </row>
+    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="11"/>
+      <c r="B196" s="12"/>
+      <c r="E196" s="13"/>
+      <c r="F196" s="13"/>
+    </row>
+    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="11"/>
+      <c r="B197" s="12"/>
+      <c r="E197" s="13"/>
+      <c r="F197" s="13"/>
+    </row>
+    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="11"/>
+      <c r="B198" s="12"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="13"/>
+    </row>
+    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="11"/>
+      <c r="B199" s="12"/>
+      <c r="E199" s="13"/>
+      <c r="F199" s="13"/>
+    </row>
+    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="11"/>
+      <c r="B200" s="12"/>
+      <c r="E200" s="13"/>
+      <c r="F200" s="13"/>
+    </row>
+    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="11"/>
+      <c r="B201" s="12"/>
+      <c r="E201" s="13"/>
+      <c r="F201" s="13"/>
+    </row>
+    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="11"/>
+      <c r="B202" s="12"/>
+      <c r="E202" s="13"/>
+      <c r="F202" s="13"/>
+    </row>
+    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="11"/>
+      <c r="B203" s="12"/>
+      <c r="E203" s="13"/>
+      <c r="F203" s="13"/>
+    </row>
+    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="11"/>
+      <c r="B204" s="12"/>
+      <c r="E204" s="13"/>
+      <c r="F204" s="13"/>
+    </row>
+    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="11"/>
+      <c r="B205" s="12"/>
+      <c r="E205" s="13"/>
+      <c r="F205" s="13"/>
+    </row>
+    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="11"/>
+      <c r="B206" s="12"/>
+      <c r="E206" s="13"/>
+      <c r="F206" s="13"/>
+    </row>
+    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="11"/>
+      <c r="B207" s="12"/>
+      <c r="E207" s="13"/>
+      <c r="F207" s="13"/>
+    </row>
+    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="11"/>
+      <c r="B208" s="12"/>
+      <c r="E208" s="13"/>
+      <c r="F208" s="13"/>
+    </row>
+    <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="11"/>
+      <c r="B209" s="12"/>
+      <c r="E209" s="13"/>
+      <c r="F209" s="13"/>
+    </row>
+    <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="11"/>
+      <c r="B210" s="12"/>
+      <c r="E210" s="13"/>
+      <c r="F210" s="13"/>
+    </row>
+    <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="11"/>
+      <c r="B211" s="12"/>
+      <c r="E211" s="13"/>
+      <c r="F211" s="13"/>
+    </row>
+    <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="11"/>
+      <c r="B212" s="12"/>
+      <c r="E212" s="13"/>
+      <c r="F212" s="13"/>
+    </row>
+    <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="11"/>
+      <c r="B213" s="12"/>
+      <c r="E213" s="13"/>
+      <c r="F213" s="13"/>
+    </row>
+    <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="11"/>
+      <c r="B214" s="12"/>
+      <c r="E214" s="13"/>
+      <c r="F214" s="13"/>
+    </row>
+    <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="11"/>
+      <c r="B215" s="12"/>
+      <c r="E215" s="13"/>
+      <c r="F215" s="13"/>
+    </row>
+    <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="11"/>
+      <c r="B216" s="12"/>
+      <c r="E216" s="13"/>
+      <c r="F216" s="13"/>
+    </row>
+    <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="11"/>
+      <c r="B217" s="12"/>
+      <c r="E217" s="13"/>
+      <c r="F217" s="13"/>
+    </row>
+    <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="11"/>
+      <c r="B218" s="12"/>
+      <c r="E218" s="13"/>
+      <c r="F218" s="13"/>
+    </row>
+    <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="11"/>
+      <c r="B219" s="12"/>
+      <c r="E219" s="13"/>
+      <c r="F219" s="13"/>
+    </row>
+    <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="11"/>
+      <c r="B220" s="12"/>
+      <c r="E220" s="13"/>
+      <c r="F220" s="13"/>
+    </row>
+    <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="11"/>
+      <c r="B221" s="12"/>
+      <c r="E221" s="13"/>
+      <c r="F221" s="13"/>
+    </row>
+    <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="11"/>
+      <c r="B222" s="12"/>
+      <c r="E222" s="13"/>
+      <c r="F222" s="13"/>
+    </row>
+    <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="11"/>
+      <c r="B223" s="12"/>
+      <c r="E223" s="13"/>
+      <c r="F223" s="13"/>
+    </row>
+    <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="11"/>
+      <c r="B224" s="12"/>
+      <c r="E224" s="13"/>
+      <c r="F224" s="13"/>
+    </row>
+    <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="11"/>
+      <c r="B225" s="12"/>
+      <c r="E225" s="13"/>
+      <c r="F225" s="13"/>
+    </row>
+    <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="11"/>
+      <c r="B226" s="12"/>
+      <c r="E226" s="13"/>
+      <c r="F226" s="13"/>
+    </row>
+    <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="11"/>
+      <c r="B227" s="12"/>
+      <c r="E227" s="13"/>
+      <c r="F227" s="13"/>
+    </row>
+    <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="11"/>
+      <c r="B228" s="12"/>
+      <c r="E228" s="13"/>
+      <c r="F228" s="13"/>
+    </row>
+    <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="11"/>
+      <c r="B229" s="12"/>
+      <c r="E229" s="13"/>
+      <c r="F229" s="13"/>
+    </row>
+    <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="11"/>
+      <c r="B230" s="12"/>
+      <c r="E230" s="13"/>
+      <c r="F230" s="13"/>
+    </row>
+    <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="11"/>
+      <c r="B231" s="12"/>
+      <c r="E231" s="13"/>
+      <c r="F231" s="13"/>
+    </row>
+    <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="11"/>
+      <c r="B232" s="12"/>
+      <c r="E232" s="13"/>
+      <c r="F232" s="13"/>
+    </row>
+    <row r="233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="11"/>
+      <c r="B233" s="12"/>
+      <c r="E233" s="13"/>
+      <c r="F233" s="13"/>
+    </row>
+    <row r="234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="11"/>
+      <c r="B234" s="12"/>
+      <c r="E234" s="13"/>
+      <c r="F234" s="13"/>
+    </row>
+    <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="11"/>
+      <c r="B235" s="12"/>
+      <c r="E235" s="13"/>
+      <c r="F235" s="13"/>
+    </row>
+    <row r="236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="11"/>
+      <c r="B236" s="12"/>
+      <c r="E236" s="13"/>
+      <c r="F236" s="13"/>
+    </row>
+    <row r="237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="11"/>
+      <c r="B237" s="12"/>
+      <c r="E237" s="13"/>
+      <c r="F237" s="13"/>
+    </row>
+    <row r="238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="11"/>
+      <c r="B238" s="12"/>
+      <c r="E238" s="13"/>
+      <c r="F238" s="13"/>
+    </row>
+    <row r="239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="11"/>
+      <c r="B239" s="12"/>
+      <c r="E239" s="13"/>
+      <c r="F239" s="13"/>
+    </row>
+    <row r="240" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="11"/>
+      <c r="B240" s="12"/>
+      <c r="E240" s="13"/>
+      <c r="F240" s="13"/>
+    </row>
+    <row r="241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="11"/>
+      <c r="B241" s="12"/>
+      <c r="E241" s="13"/>
+      <c r="F241" s="13"/>
+    </row>
+    <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="11"/>
+      <c r="B242" s="12"/>
+      <c r="E242" s="13"/>
+      <c r="F242" s="13"/>
+    </row>
+    <row r="243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="11"/>
+      <c r="B243" s="12"/>
+      <c r="E243" s="13"/>
+      <c r="F243" s="13"/>
+    </row>
+    <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="11"/>
+      <c r="B244" s="12"/>
+      <c r="E244" s="13"/>
+      <c r="F244" s="13"/>
+    </row>
+    <row r="245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="11"/>
+      <c r="B245" s="12"/>
+      <c r="E245" s="13"/>
+      <c r="F245" s="13"/>
+    </row>
+    <row r="246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="11"/>
+      <c r="B246" s="12"/>
+      <c r="E246" s="13"/>
+      <c r="F246" s="13"/>
+    </row>
+    <row r="247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="11"/>
+      <c r="B247" s="12"/>
+      <c r="E247" s="13"/>
+      <c r="F247" s="13"/>
+    </row>
+    <row r="248" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="11"/>
+      <c r="B248" s="12"/>
+      <c r="E248" s="13"/>
+      <c r="F248" s="13"/>
+    </row>
+    <row r="249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="11"/>
+      <c r="B249" s="12"/>
+      <c r="E249" s="13"/>
+      <c r="F249" s="13"/>
+    </row>
+    <row r="250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="11"/>
+      <c r="B250" s="12"/>
+      <c r="E250" s="13"/>
+      <c r="F250" s="13"/>
+    </row>
+    <row r="251" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="11"/>
+      <c r="B251" s="12"/>
+      <c r="E251" s="13"/>
+      <c r="F251" s="13"/>
+    </row>
+    <row r="252" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="11"/>
+      <c r="B252" s="12"/>
+      <c r="E252" s="13"/>
+      <c r="F252" s="13"/>
+    </row>
+    <row r="253" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="11"/>
+      <c r="B253" s="12"/>
+      <c r="E253" s="13"/>
+      <c r="F253" s="13"/>
+    </row>
+    <row r="254" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="11"/>
+      <c r="B254" s="12"/>
+      <c r="E254" s="13"/>
+      <c r="F254" s="13"/>
+    </row>
+    <row r="255" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="11"/>
+      <c r="B255" s="12"/>
+      <c r="E255" s="13"/>
+      <c r="F255" s="13"/>
+    </row>
+    <row r="256" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="11"/>
+      <c r="B256" s="12"/>
+      <c r="E256" s="13"/>
+      <c r="F256" s="13"/>
+    </row>
+    <row r="257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="11"/>
+      <c r="B257" s="12"/>
+      <c r="E257" s="13"/>
+      <c r="F257" s="13"/>
+    </row>
+    <row r="258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="11"/>
+      <c r="B258" s="12"/>
+      <c r="E258" s="13"/>
+      <c r="F258" s="13"/>
+    </row>
+    <row r="259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="11"/>
+      <c r="B259" s="12"/>
+      <c r="E259" s="13"/>
+      <c r="F259" s="13"/>
+    </row>
+    <row r="260" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="11"/>
+      <c r="B260" s="12"/>
+      <c r="E260" s="13"/>
+      <c r="F260" s="13"/>
+    </row>
+    <row r="261" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="11"/>
+      <c r="B261" s="12"/>
+      <c r="E261" s="13"/>
+      <c r="F261" s="13"/>
+    </row>
+    <row r="262" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="11"/>
+      <c r="B262" s="12"/>
+      <c r="E262" s="13"/>
+      <c r="F262" s="13"/>
+    </row>
+    <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="11"/>
+      <c r="B263" s="12"/>
+      <c r="E263" s="13"/>
+      <c r="F263" s="13"/>
+    </row>
+    <row r="264" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="11"/>
+      <c r="B264" s="12"/>
+      <c r="E264" s="13"/>
+      <c r="F264" s="13"/>
+    </row>
+    <row r="265" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="11"/>
+      <c r="B265" s="12"/>
+      <c r="E265" s="13"/>
+      <c r="F265" s="13"/>
+    </row>
+    <row r="266" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="11"/>
+      <c r="B266" s="12"/>
+      <c r="E266" s="13"/>
+      <c r="F266" s="13"/>
+    </row>
+    <row r="267" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="11"/>
+      <c r="B267" s="12"/>
+      <c r="E267" s="13"/>
+      <c r="F267" s="13"/>
+    </row>
+    <row r="268" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="11"/>
+      <c r="B268" s="12"/>
+      <c r="E268" s="13"/>
+      <c r="F268" s="13"/>
+    </row>
+    <row r="269" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="11"/>
+      <c r="B269" s="12"/>
+      <c r="E269" s="13"/>
+      <c r="F269" s="13"/>
+    </row>
+    <row r="270" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="11"/>
+      <c r="B270" s="12"/>
+      <c r="E270" s="13"/>
+      <c r="F270" s="13"/>
+    </row>
+    <row r="271" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="11"/>
+      <c r="B271" s="12"/>
+      <c r="E271" s="13"/>
+      <c r="F271" s="13"/>
+    </row>
+    <row r="272" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="11"/>
+      <c r="B272" s="12"/>
+      <c r="E272" s="13"/>
+      <c r="F272" s="13"/>
+    </row>
+    <row r="273" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="11"/>
+      <c r="B273" s="12"/>
+      <c r="E273" s="13"/>
+      <c r="F273" s="13"/>
+    </row>
+    <row r="274" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="11"/>
+      <c r="B274" s="12"/>
+      <c r="E274" s="13"/>
+      <c r="F274" s="13"/>
+    </row>
+    <row r="275" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="11"/>
+      <c r="B275" s="12"/>
+      <c r="E275" s="13"/>
+      <c r="F275" s="13"/>
+    </row>
+    <row r="276" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="11"/>
+      <c r="B276" s="12"/>
+      <c r="E276" s="13"/>
+      <c r="F276" s="13"/>
+    </row>
+    <row r="277" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="11"/>
+      <c r="B277" s="12"/>
+      <c r="E277" s="13"/>
+      <c r="F277" s="13"/>
+    </row>
+    <row r="278" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="11"/>
+      <c r="B278" s="12"/>
+      <c r="E278" s="13"/>
+      <c r="F278" s="13"/>
+    </row>
+    <row r="279" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="11"/>
+      <c r="B279" s="12"/>
+      <c r="E279" s="13"/>
+      <c r="F279" s="13"/>
+    </row>
+    <row r="280" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="11"/>
+      <c r="B280" s="12"/>
+      <c r="E280" s="13"/>
+      <c r="F280" s="13"/>
+    </row>
+    <row r="281" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="11"/>
+      <c r="B281" s="12"/>
+      <c r="E281" s="13"/>
+      <c r="F281" s="13"/>
+    </row>
+    <row r="282" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="11"/>
+      <c r="B282" s="12"/>
+      <c r="E282" s="13"/>
+      <c r="F282" s="13"/>
+    </row>
+    <row r="283" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="11"/>
+      <c r="B283" s="12"/>
+      <c r="E283" s="13"/>
+      <c r="F283" s="13"/>
+    </row>
+    <row r="284" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="11"/>
+      <c r="B284" s="12"/>
+      <c r="E284" s="13"/>
+      <c r="F284" s="13"/>
+    </row>
+    <row r="285" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="11"/>
+      <c r="B285" s="12"/>
+      <c r="E285" s="13"/>
+      <c r="F285" s="13"/>
+    </row>
+    <row r="286" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="11"/>
+      <c r="B286" s="12"/>
+      <c r="E286" s="13"/>
+      <c r="F286" s="13"/>
+    </row>
+    <row r="287" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="11"/>
+      <c r="B287" s="12"/>
+      <c r="E287" s="13"/>
+      <c r="F287" s="13"/>
+    </row>
+    <row r="288" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="11"/>
+      <c r="B288" s="12"/>
+      <c r="E288" s="13"/>
+      <c r="F288" s="13"/>
+    </row>
+    <row r="289" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="11"/>
+      <c r="B289" s="12"/>
+      <c r="E289" s="13"/>
+      <c r="F289" s="13"/>
+    </row>
+    <row r="290" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="11"/>
+      <c r="B290" s="12"/>
+      <c r="E290" s="13"/>
+      <c r="F290" s="13"/>
+    </row>
+    <row r="291" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="11"/>
+      <c r="B291" s="12"/>
+      <c r="E291" s="13"/>
+      <c r="F291" s="13"/>
+    </row>
+    <row r="292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="11"/>
+      <c r="B292" s="12"/>
+      <c r="E292" s="13"/>
+      <c r="F292" s="13"/>
+    </row>
+    <row r="293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="11"/>
+      <c r="B293" s="12"/>
+      <c r="E293" s="13"/>
+      <c r="F293" s="13"/>
+    </row>
+    <row r="294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="11"/>
+      <c r="B294" s="12"/>
+      <c r="E294" s="13"/>
+      <c r="F294" s="13"/>
+    </row>
+    <row r="295" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="11"/>
+      <c r="B295" s="12"/>
+      <c r="E295" s="13"/>
+      <c r="F295" s="13"/>
+    </row>
+    <row r="296" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="11"/>
+      <c r="B296" s="12"/>
+      <c r="E296" s="13"/>
+      <c r="F296" s="13"/>
+    </row>
+    <row r="297" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="11"/>
+      <c r="B297" s="12"/>
+      <c r="E297" s="13"/>
+      <c r="F297" s="13"/>
+    </row>
+    <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="11"/>
+      <c r="B298" s="12"/>
+      <c r="E298" s="13"/>
+      <c r="F298" s="13"/>
+    </row>
+    <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="11"/>
+      <c r="B299" s="12"/>
+      <c r="E299" s="13"/>
+      <c r="F299" s="13"/>
+    </row>
+    <row r="300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="11"/>
+      <c r="B300" s="12"/>
+      <c r="E300" s="13"/>
+      <c r="F300" s="13"/>
+    </row>
+    <row r="301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="11"/>
+      <c r="B301" s="12"/>
+      <c r="E301" s="13"/>
+      <c r="F301" s="13"/>
+    </row>
+    <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="11"/>
+      <c r="B302" s="12"/>
+      <c r="E302" s="13"/>
+      <c r="F302" s="13"/>
+    </row>
+    <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="11"/>
+      <c r="B303" s="12"/>
+      <c r="E303" s="13"/>
+      <c r="F303" s="13"/>
+    </row>
+    <row r="304" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="11"/>
+      <c r="B304" s="12"/>
+      <c r="E304" s="13"/>
+      <c r="F304" s="13"/>
+    </row>
+    <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="11"/>
+      <c r="B305" s="12"/>
+      <c r="E305" s="13"/>
+      <c r="F305" s="13"/>
+    </row>
+    <row r="306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="11"/>
+      <c r="B306" s="12"/>
+      <c r="E306" s="13"/>
+      <c r="F306" s="13"/>
+    </row>
+    <row r="307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="11"/>
+      <c r="B307" s="12"/>
+      <c r="E307" s="13"/>
+      <c r="F307" s="13"/>
+    </row>
+    <row r="308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="11"/>
+      <c r="B308" s="12"/>
+      <c r="E308" s="13"/>
+      <c r="F308" s="13"/>
+    </row>
+    <row r="309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="11"/>
+      <c r="B309" s="12"/>
+      <c r="E309" s="13"/>
+      <c r="F309" s="13"/>
+    </row>
+    <row r="310" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="11"/>
+      <c r="B310" s="12"/>
+      <c r="E310" s="13"/>
+      <c r="F310" s="13"/>
+    </row>
+    <row r="311" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="11"/>
+      <c r="B311" s="12"/>
+      <c r="E311" s="13"/>
+      <c r="F311" s="13"/>
+    </row>
+    <row r="312" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="11"/>
+      <c r="B312" s="12"/>
+      <c r="E312" s="13"/>
+      <c r="F312" s="13"/>
+    </row>
+    <row r="313" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="11"/>
+      <c r="B313" s="12"/>
+      <c r="E313" s="13"/>
+      <c r="F313" s="13"/>
+    </row>
+    <row r="314" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="11"/>
+      <c r="B314" s="12"/>
+      <c r="E314" s="13"/>
+      <c r="F314" s="13"/>
+    </row>
+    <row r="315" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="11"/>
+      <c r="B315" s="12"/>
+      <c r="E315" s="13"/>
+      <c r="F315" s="13"/>
+    </row>
+    <row r="316" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="11"/>
+      <c r="B316" s="12"/>
+      <c r="E316" s="13"/>
+      <c r="F316" s="13"/>
+    </row>
+    <row r="317" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A317" s="11"/>
+      <c r="B317" s="12"/>
+      <c r="E317" s="13"/>
+      <c r="F317" s="13"/>
+    </row>
+    <row r="318" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="11"/>
+      <c r="B318" s="12"/>
+      <c r="E318" s="13"/>
+      <c r="F318" s="13"/>
+    </row>
+    <row r="319" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A319" s="11"/>
+      <c r="B319" s="12"/>
+      <c r="E319" s="13"/>
+      <c r="F319" s="13"/>
+    </row>
+    <row r="320" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="11"/>
+      <c r="B320" s="12"/>
+      <c r="E320" s="13"/>
+      <c r="F320" s="13"/>
+    </row>
+    <row r="321" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="11"/>
+      <c r="B321" s="12"/>
+      <c r="E321" s="13"/>
+      <c r="F321" s="13"/>
+    </row>
+    <row r="322" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="11"/>
+      <c r="B322" s="12"/>
+      <c r="E322" s="13"/>
+      <c r="F322" s="13"/>
+    </row>
+    <row r="323" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="11"/>
+      <c r="B323" s="12"/>
+      <c r="E323" s="13"/>
+      <c r="F323" s="13"/>
+    </row>
+    <row r="324" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="11"/>
+      <c r="B324" s="12"/>
+      <c r="E324" s="13"/>
+      <c r="F324" s="13"/>
+    </row>
+    <row r="325" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A325" s="11"/>
+      <c r="B325" s="12"/>
+      <c r="E325" s="13"/>
+      <c r="F325" s="13"/>
+    </row>
+    <row r="326" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="11"/>
+      <c r="B326" s="12"/>
+      <c r="E326" s="13"/>
+      <c r="F326" s="13"/>
+    </row>
+    <row r="327" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="11"/>
+      <c r="B327" s="12"/>
+      <c r="E327" s="13"/>
+      <c r="F327" s="13"/>
+    </row>
+    <row r="328" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="11"/>
+      <c r="B328" s="12"/>
+      <c r="E328" s="13"/>
+      <c r="F328" s="13"/>
+    </row>
+    <row r="329" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="11"/>
+      <c r="B329" s="12"/>
+      <c r="E329" s="13"/>
+      <c r="F329" s="13"/>
+    </row>
+    <row r="330" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A330" s="11"/>
+      <c r="B330" s="12"/>
+      <c r="E330" s="13"/>
+      <c r="F330" s="13"/>
+    </row>
+    <row r="331" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A331" s="11"/>
+      <c r="B331" s="12"/>
+      <c r="E331" s="13"/>
+      <c r="F331" s="13"/>
+    </row>
+    <row r="332" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="11"/>
+      <c r="B332" s="12"/>
+      <c r="E332" s="13"/>
+      <c r="F332" s="13"/>
+    </row>
+    <row r="333" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A333" s="11"/>
+      <c r="B333" s="12"/>
+      <c r="E333" s="13"/>
+      <c r="F333" s="13"/>
+    </row>
+    <row r="334" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A334" s="11"/>
+      <c r="B334" s="12"/>
+      <c r="E334" s="13"/>
+      <c r="F334" s="13"/>
+    </row>
+    <row r="335" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="11"/>
+      <c r="B335" s="12"/>
+      <c r="E335" s="13"/>
+      <c r="F335" s="13"/>
+    </row>
+    <row r="336" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="11"/>
+      <c r="B336" s="12"/>
+      <c r="E336" s="13"/>
+      <c r="F336" s="13"/>
+    </row>
+    <row r="337" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="11"/>
+      <c r="B337" s="12"/>
+      <c r="E337" s="13"/>
+      <c r="F337" s="13"/>
+    </row>
+    <row r="338" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="11"/>
+      <c r="B338" s="12"/>
+      <c r="E338" s="13"/>
+      <c r="F338" s="13"/>
+    </row>
+    <row r="339" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A339" s="11"/>
+      <c r="B339" s="12"/>
+      <c r="E339" s="13"/>
+      <c r="F339" s="13"/>
+    </row>
+    <row r="340" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="11"/>
+      <c r="B340" s="12"/>
+      <c r="E340" s="13"/>
+      <c r="F340" s="13"/>
+    </row>
+    <row r="341" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="11"/>
+      <c r="B341" s="12"/>
+      <c r="E341" s="13"/>
+      <c r="F341" s="13"/>
+    </row>
+    <row r="342" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="11"/>
+      <c r="B342" s="12"/>
+      <c r="E342" s="13"/>
+      <c r="F342" s="13"/>
+    </row>
+    <row r="343" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="11"/>
+      <c r="B343" s="12"/>
+      <c r="E343" s="13"/>
+      <c r="F343" s="13"/>
+    </row>
+    <row r="344" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="11"/>
+      <c r="B344" s="12"/>
+      <c r="E344" s="13"/>
+      <c r="F344" s="13"/>
+    </row>
+    <row r="345" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="11"/>
+      <c r="B345" s="12"/>
+      <c r="E345" s="13"/>
+      <c r="F345" s="13"/>
+    </row>
+    <row r="346" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="11"/>
+      <c r="B346" s="12"/>
+      <c r="E346" s="13"/>
+      <c r="F346" s="13"/>
+    </row>
+    <row r="347" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="11"/>
+      <c r="B347" s="12"/>
+      <c r="E347" s="13"/>
+      <c r="F347" s="13"/>
+    </row>
+    <row r="348" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="11"/>
+      <c r="B348" s="12"/>
+      <c r="E348" s="13"/>
+      <c r="F348" s="13"/>
+    </row>
+    <row r="349" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="11"/>
+      <c r="B349" s="12"/>
+      <c r="E349" s="13"/>
+      <c r="F349" s="13"/>
+    </row>
+    <row r="350" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="11"/>
+      <c r="B350" s="12"/>
+      <c r="E350" s="13"/>
+      <c r="F350" s="13"/>
+    </row>
+    <row r="351" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A351" s="11"/>
+      <c r="B351" s="12"/>
+      <c r="E351" s="13"/>
+      <c r="F351" s="13"/>
+    </row>
+    <row r="352" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A352" s="11"/>
+      <c r="B352" s="12"/>
+      <c r="E352" s="13"/>
+      <c r="F352" s="13"/>
+    </row>
+    <row r="353" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A353" s="11"/>
+      <c r="B353" s="12"/>
+      <c r="E353" s="13"/>
+      <c r="F353" s="13"/>
+    </row>
+    <row r="354" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="11"/>
+      <c r="B354" s="12"/>
+      <c r="E354" s="13"/>
+      <c r="F354" s="13"/>
+    </row>
+    <row r="355" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A355" s="11"/>
+      <c r="B355" s="12"/>
+      <c r="E355" s="13"/>
+      <c r="F355" s="13"/>
+    </row>
+    <row r="356" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A356" s="11"/>
+      <c r="B356" s="12"/>
+      <c r="E356" s="13"/>
+      <c r="F356" s="13"/>
+    </row>
+    <row r="357" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A357" s="11"/>
+      <c r="B357" s="12"/>
+      <c r="E357" s="13"/>
+      <c r="F357" s="13"/>
+    </row>
+    <row r="358" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A358" s="11"/>
+      <c r="B358" s="12"/>
+      <c r="E358" s="13"/>
+      <c r="F358" s="13"/>
+    </row>
+    <row r="359" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A359" s="11"/>
+      <c r="B359" s="12"/>
+      <c r="E359" s="13"/>
+      <c r="F359" s="13"/>
+    </row>
+    <row r="360" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A360" s="11"/>
+      <c r="B360" s="12"/>
+      <c r="E360" s="13"/>
+      <c r="F360" s="13"/>
+    </row>
+    <row r="361" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="11"/>
+      <c r="B361" s="12"/>
+      <c r="E361" s="13"/>
+      <c r="F361" s="13"/>
+    </row>
+    <row r="362" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="11"/>
+      <c r="B362" s="12"/>
+      <c r="E362" s="13"/>
+      <c r="F362" s="13"/>
+    </row>
+    <row r="363" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="11"/>
+      <c r="B363" s="12"/>
+      <c r="E363" s="13"/>
+      <c r="F363" s="13"/>
+    </row>
+    <row r="364" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="11"/>
+      <c r="B364" s="12"/>
+      <c r="E364" s="13"/>
+      <c r="F364" s="13"/>
+    </row>
+    <row r="365" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="11"/>
+      <c r="B365" s="12"/>
+      <c r="E365" s="13"/>
+      <c r="F365" s="13"/>
+    </row>
+    <row r="366" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="11"/>
+      <c r="B366" s="12"/>
+      <c r="E366" s="13"/>
+      <c r="F366" s="13"/>
+    </row>
+    <row r="367" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A367" s="11"/>
+      <c r="B367" s="12"/>
+      <c r="E367" s="13"/>
+      <c r="F367" s="13"/>
+    </row>
+    <row r="368" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A368" s="11"/>
+      <c r="B368" s="12"/>
+      <c r="E368" s="13"/>
+      <c r="F368" s="13"/>
+    </row>
+    <row r="369" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A369" s="11"/>
+      <c r="B369" s="12"/>
+      <c r="E369" s="13"/>
+      <c r="F369" s="13"/>
+    </row>
+    <row r="370" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A370" s="11"/>
+      <c r="B370" s="12"/>
+      <c r="E370" s="13"/>
+      <c r="F370" s="13"/>
+    </row>
+    <row r="371" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="11"/>
+      <c r="B371" s="12"/>
+      <c r="E371" s="13"/>
+      <c r="F371" s="13"/>
+    </row>
+    <row r="372" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="11"/>
+      <c r="B372" s="12"/>
+      <c r="E372" s="13"/>
+      <c r="F372" s="13"/>
+    </row>
+    <row r="373" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="11"/>
+      <c r="B373" s="12"/>
+      <c r="E373" s="13"/>
+      <c r="F373" s="13"/>
+    </row>
+    <row r="374" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="11"/>
+      <c r="B374" s="12"/>
+      <c r="E374" s="13"/>
+      <c r="F374" s="13"/>
+    </row>
+    <row r="375" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="11"/>
+      <c r="B375" s="12"/>
+      <c r="E375" s="13"/>
+      <c r="F375" s="13"/>
+    </row>
+    <row r="376" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="11"/>
+      <c r="B376" s="12"/>
+      <c r="E376" s="13"/>
+      <c r="F376" s="13"/>
+    </row>
+    <row r="377" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="11"/>
+      <c r="B377" s="12"/>
+      <c r="E377" s="13"/>
+      <c r="F377" s="13"/>
+    </row>
+    <row r="378" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="11"/>
+      <c r="B378" s="12"/>
+      <c r="E378" s="13"/>
+      <c r="F378" s="13"/>
+    </row>
+    <row r="379" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="11"/>
+      <c r="B379" s="12"/>
+      <c r="E379" s="13"/>
+      <c r="F379" s="13"/>
+    </row>
+    <row r="380" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="11"/>
+      <c r="B380" s="12"/>
+      <c r="E380" s="13"/>
+      <c r="F380" s="13"/>
+    </row>
+    <row r="381" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="11"/>
+      <c r="B381" s="12"/>
+      <c r="E381" s="13"/>
+      <c r="F381" s="13"/>
+    </row>
+    <row r="382" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="11"/>
+      <c r="B382" s="12"/>
+      <c r="E382" s="13"/>
+      <c r="F382" s="13"/>
+    </row>
+    <row r="383" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="11"/>
+      <c r="B383" s="12"/>
+      <c r="E383" s="13"/>
+      <c r="F383" s="13"/>
+    </row>
+    <row r="384" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="11"/>
+      <c r="B384" s="12"/>
+      <c r="E384" s="13"/>
+      <c r="F384" s="13"/>
+    </row>
+    <row r="385" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="11"/>
+      <c r="B385" s="12"/>
+      <c r="E385" s="13"/>
+      <c r="F385" s="13"/>
+    </row>
+    <row r="386" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="11"/>
+      <c r="B386" s="12"/>
+      <c r="E386" s="13"/>
+      <c r="F386" s="13"/>
+    </row>
+    <row r="387" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="11"/>
+      <c r="B387" s="12"/>
+      <c r="E387" s="13"/>
+      <c r="F387" s="13"/>
+    </row>
+    <row r="388" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="11"/>
+      <c r="B388" s="12"/>
+      <c r="E388" s="13"/>
+      <c r="F388" s="13"/>
+    </row>
+    <row r="389" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="11"/>
+      <c r="B389" s="12"/>
+      <c r="E389" s="13"/>
+      <c r="F389" s="13"/>
+    </row>
+    <row r="390" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="11"/>
+      <c r="B390" s="12"/>
+      <c r="E390" s="13"/>
+      <c r="F390" s="13"/>
+    </row>
+    <row r="391" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="11"/>
+      <c r="B391" s="12"/>
+      <c r="E391" s="13"/>
+      <c r="F391" s="13"/>
+    </row>
+    <row r="392" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="11"/>
+      <c r="B392" s="12"/>
+      <c r="E392" s="13"/>
+      <c r="F392" s="13"/>
+    </row>
+    <row r="393" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="11"/>
+      <c r="B393" s="12"/>
+      <c r="E393" s="13"/>
+      <c r="F393" s="13"/>
+    </row>
+    <row r="394" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="11"/>
+      <c r="B394" s="12"/>
+      <c r="E394" s="13"/>
+      <c r="F394" s="13"/>
+    </row>
+    <row r="395" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A395" s="11"/>
+      <c r="B395" s="12"/>
+      <c r="E395" s="13"/>
+      <c r="F395" s="13"/>
+    </row>
+    <row r="396" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A396" s="11"/>
+      <c r="B396" s="12"/>
+      <c r="E396" s="13"/>
+      <c r="F396" s="13"/>
+    </row>
+    <row r="397" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A397" s="11"/>
+      <c r="B397" s="12"/>
+      <c r="E397" s="13"/>
+      <c r="F397" s="13"/>
+    </row>
+    <row r="398" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A398" s="11"/>
+      <c r="B398" s="12"/>
+      <c r="E398" s="13"/>
+      <c r="F398" s="13"/>
+    </row>
+    <row r="399" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A399" s="11"/>
+      <c r="B399" s="12"/>
+      <c r="E399" s="13"/>
+      <c r="F399" s="13"/>
+    </row>
+    <row r="400" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A400" s="11"/>
+      <c r="B400" s="12"/>
+      <c r="E400" s="13"/>
+      <c r="F400" s="13"/>
+    </row>
+    <row r="401" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A401" s="11"/>
+      <c r="B401" s="12"/>
+      <c r="E401" s="13"/>
+      <c r="F401" s="13"/>
+    </row>
+    <row r="402" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="11"/>
+      <c r="B402" s="12"/>
+      <c r="E402" s="13"/>
+      <c r="F402" s="13"/>
+    </row>
+    <row r="403" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A403" s="11"/>
+      <c r="B403" s="12"/>
+      <c r="E403" s="13"/>
+      <c r="F403" s="13"/>
+    </row>
+    <row r="404" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A404" s="11"/>
+      <c r="B404" s="12"/>
+      <c r="E404" s="13"/>
+      <c r="F404" s="13"/>
+    </row>
+    <row r="405" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A405" s="11"/>
+      <c r="B405" s="12"/>
+      <c r="E405" s="13"/>
+      <c r="F405" s="13"/>
+    </row>
+    <row r="406" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A406" s="11"/>
+      <c r="B406" s="12"/>
+      <c r="E406" s="13"/>
+      <c r="F406" s="13"/>
+    </row>
+    <row r="407" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A407" s="11"/>
+      <c r="B407" s="12"/>
+      <c r="E407" s="13"/>
+      <c r="F407" s="13"/>
+    </row>
+    <row r="408" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A408" s="11"/>
+      <c r="B408" s="12"/>
+      <c r="E408" s="13"/>
+      <c r="F408" s="13"/>
+    </row>
+    <row r="409" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A409" s="11"/>
+      <c r="B409" s="12"/>
+      <c r="E409" s="13"/>
+      <c r="F409" s="13"/>
+    </row>
+    <row r="410" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A410" s="11"/>
+      <c r="B410" s="12"/>
+      <c r="E410" s="13"/>
+      <c r="F410" s="13"/>
+    </row>
+    <row r="411" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A411" s="11"/>
+      <c r="B411" s="12"/>
+      <c r="E411" s="13"/>
+      <c r="F411" s="13"/>
+    </row>
+    <row r="412" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A412" s="11"/>
+      <c r="B412" s="12"/>
+      <c r="E412" s="13"/>
+      <c r="F412" s="13"/>
+    </row>
+    <row r="413" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A413" s="11"/>
+      <c r="B413" s="12"/>
+      <c r="E413" s="13"/>
+      <c r="F413" s="13"/>
+    </row>
+    <row r="414" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="11"/>
+      <c r="B414" s="12"/>
+      <c r="E414" s="13"/>
+      <c r="F414" s="13"/>
+    </row>
+    <row r="415" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="11"/>
+      <c r="B415" s="12"/>
+      <c r="E415" s="13"/>
+      <c r="F415" s="13"/>
+    </row>
+    <row r="416" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="11"/>
+      <c r="B416" s="12"/>
+      <c r="E416" s="13"/>
+      <c r="F416" s="13"/>
+    </row>
+    <row r="417" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A417" s="11"/>
+      <c r="B417" s="12"/>
+      <c r="E417" s="13"/>
+      <c r="F417" s="13"/>
+    </row>
+    <row r="418" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A418" s="11"/>
+      <c r="B418" s="12"/>
+      <c r="E418" s="13"/>
+      <c r="F418" s="13"/>
+    </row>
+    <row r="419" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A419" s="11"/>
+      <c r="B419" s="12"/>
+      <c r="E419" s="13"/>
+      <c r="F419" s="13"/>
+    </row>
+    <row r="420" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A420" s="11"/>
+      <c r="B420" s="12"/>
+      <c r="E420" s="13"/>
+      <c r="F420" s="13"/>
+    </row>
+    <row r="421" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="11"/>
+      <c r="B421" s="12"/>
+      <c r="E421" s="13"/>
+      <c r="F421" s="13"/>
+    </row>
+    <row r="422" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="11"/>
+      <c r="B422" s="12"/>
+      <c r="E422" s="13"/>
+      <c r="F422" s="13"/>
+    </row>
+    <row r="423" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="11"/>
+      <c r="B423" s="12"/>
+      <c r="E423" s="13"/>
+      <c r="F423" s="13"/>
+    </row>
+    <row r="424" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="11"/>
+      <c r="B424" s="12"/>
+      <c r="E424" s="13"/>
+      <c r="F424" s="13"/>
+    </row>
+    <row r="425" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="11"/>
+      <c r="B425" s="12"/>
+      <c r="E425" s="13"/>
+      <c r="F425" s="13"/>
+    </row>
+    <row r="426" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="11"/>
+      <c r="B426" s="12"/>
+      <c r="E426" s="13"/>
+      <c r="F426" s="13"/>
+    </row>
+    <row r="427" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="11"/>
+      <c r="B427" s="12"/>
+      <c r="E427" s="13"/>
+      <c r="F427" s="13"/>
+    </row>
+    <row r="428" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="11"/>
+      <c r="B428" s="12"/>
+      <c r="E428" s="13"/>
+      <c r="F428" s="13"/>
+    </row>
+    <row r="429" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="11"/>
+      <c r="B429" s="12"/>
+      <c r="E429" s="13"/>
+      <c r="F429" s="13"/>
+    </row>
+    <row r="430" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="11"/>
+      <c r="B430" s="12"/>
+      <c r="E430" s="13"/>
+      <c r="F430" s="13"/>
+    </row>
+    <row r="431" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="11"/>
+      <c r="B431" s="12"/>
+      <c r="E431" s="13"/>
+      <c r="F431" s="13"/>
+    </row>
+    <row r="432" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="11"/>
+      <c r="B432" s="12"/>
+      <c r="E432" s="13"/>
+      <c r="F432" s="13"/>
+    </row>
+    <row r="433" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="11"/>
+      <c r="B433" s="12"/>
+      <c r="E433" s="13"/>
+      <c r="F433" s="13"/>
+    </row>
+    <row r="434" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A434" s="11"/>
+      <c r="B434" s="12"/>
+      <c r="E434" s="13"/>
+      <c r="F434" s="13"/>
+    </row>
+    <row r="435" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="11"/>
+      <c r="B435" s="12"/>
+      <c r="E435" s="13"/>
+      <c r="F435" s="13"/>
+    </row>
+    <row r="436" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="11"/>
+      <c r="B436" s="12"/>
+      <c r="E436" s="13"/>
+      <c r="F436" s="13"/>
+    </row>
+    <row r="437" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="11"/>
+      <c r="B437" s="12"/>
+      <c r="E437" s="13"/>
+      <c r="F437" s="13"/>
+    </row>
+    <row r="438" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="11"/>
+      <c r="B438" s="12"/>
+      <c r="E438" s="13"/>
+      <c r="F438" s="13"/>
+    </row>
+    <row r="439" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="11"/>
+      <c r="B439" s="12"/>
+      <c r="E439" s="13"/>
+      <c r="F439" s="13"/>
+    </row>
+    <row r="440" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="11"/>
+      <c r="B440" s="12"/>
+      <c r="E440" s="13"/>
+      <c r="F440" s="13"/>
+    </row>
+    <row r="441" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="11"/>
+      <c r="B441" s="12"/>
+      <c r="E441" s="13"/>
+      <c r="F441" s="13"/>
+    </row>
+    <row r="442" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="11"/>
+      <c r="B442" s="12"/>
+      <c r="E442" s="13"/>
+      <c r="F442" s="13"/>
+    </row>
+    <row r="443" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="11"/>
+      <c r="B443" s="12"/>
+      <c r="E443" s="13"/>
+      <c r="F443" s="13"/>
+    </row>
+    <row r="444" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="11"/>
+      <c r="B444" s="12"/>
+      <c r="E444" s="13"/>
+      <c r="F444" s="13"/>
+    </row>
+    <row r="445" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="11"/>
+      <c r="B445" s="12"/>
+      <c r="E445" s="13"/>
+      <c r="F445" s="13"/>
+    </row>
+    <row r="446" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="11"/>
+      <c r="B446" s="12"/>
+      <c r="E446" s="13"/>
+      <c r="F446" s="13"/>
+    </row>
+    <row r="447" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="11"/>
+      <c r="B447" s="12"/>
+      <c r="E447" s="13"/>
+      <c r="F447" s="13"/>
+    </row>
+    <row r="448" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="11"/>
+      <c r="B448" s="12"/>
+      <c r="E448" s="13"/>
+      <c r="F448" s="13"/>
+    </row>
+    <row r="449" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="11"/>
+      <c r="B449" s="12"/>
+      <c r="E449" s="13"/>
+      <c r="F449" s="13"/>
+    </row>
+    <row r="450" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="11"/>
+      <c r="B450" s="12"/>
+      <c r="E450" s="13"/>
+      <c r="F450" s="13"/>
+    </row>
+    <row r="451" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="11"/>
+      <c r="B451" s="12"/>
+      <c r="E451" s="13"/>
+      <c r="F451" s="13"/>
+    </row>
+    <row r="452" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="11"/>
+      <c r="B452" s="12"/>
+      <c r="E452" s="13"/>
+      <c r="F452" s="13"/>
+    </row>
+    <row r="453" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="11"/>
+      <c r="B453" s="12"/>
+      <c r="E453" s="13"/>
+      <c r="F453" s="13"/>
+    </row>
+    <row r="454" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="11"/>
+      <c r="B454" s="12"/>
+      <c r="E454" s="13"/>
+      <c r="F454" s="13"/>
+    </row>
+    <row r="455" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="11"/>
+      <c r="B455" s="12"/>
+      <c r="E455" s="13"/>
+      <c r="F455" s="13"/>
+    </row>
+    <row r="456" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="11"/>
+      <c r="B456" s="12"/>
+      <c r="E456" s="13"/>
+      <c r="F456" s="13"/>
+    </row>
+    <row r="457" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="11"/>
+      <c r="B457" s="12"/>
+      <c r="E457" s="13"/>
+      <c r="F457" s="13"/>
+    </row>
+    <row r="458" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="11"/>
+      <c r="B458" s="12"/>
+      <c r="E458" s="13"/>
+      <c r="F458" s="13"/>
+    </row>
+    <row r="459" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="11"/>
+      <c r="B459" s="12"/>
+      <c r="E459" s="13"/>
+      <c r="F459" s="13"/>
+    </row>
+    <row r="460" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="11"/>
+      <c r="B460" s="12"/>
+      <c r="E460" s="13"/>
+      <c r="F460" s="13"/>
+    </row>
+    <row r="461" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="11"/>
+      <c r="B461" s="12"/>
+      <c r="E461" s="13"/>
+      <c r="F461" s="13"/>
+    </row>
+    <row r="462" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="11"/>
+      <c r="B462" s="12"/>
+      <c r="E462" s="13"/>
+      <c r="F462" s="13"/>
+    </row>
+    <row r="463" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="11"/>
+      <c r="B463" s="12"/>
+      <c r="E463" s="13"/>
+      <c r="F463" s="13"/>
+    </row>
+    <row r="464" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="11"/>
+      <c r="B464" s="12"/>
+      <c r="E464" s="13"/>
+      <c r="F464" s="13"/>
+    </row>
+    <row r="465" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="11"/>
+      <c r="B465" s="12"/>
+      <c r="E465" s="13"/>
+      <c r="F465" s="13"/>
+    </row>
+    <row r="466" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="11"/>
+      <c r="B466" s="12"/>
+      <c r="E466" s="13"/>
+      <c r="F466" s="13"/>
+    </row>
+    <row r="467" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="11"/>
+      <c r="B467" s="12"/>
+      <c r="E467" s="13"/>
+      <c r="F467" s="13"/>
+    </row>
+    <row r="468" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="11"/>
+      <c r="B468" s="12"/>
+      <c r="E468" s="13"/>
+      <c r="F468" s="13"/>
+    </row>
+    <row r="469" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="11"/>
+      <c r="B469" s="12"/>
+      <c r="E469" s="13"/>
+      <c r="F469" s="13"/>
+    </row>
+    <row r="470" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="11"/>
+      <c r="B470" s="12"/>
+      <c r="E470" s="13"/>
+      <c r="F470" s="13"/>
+    </row>
+    <row r="471" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="11"/>
+      <c r="B471" s="12"/>
+      <c r="E471" s="13"/>
+      <c r="F471" s="13"/>
+    </row>
+    <row r="472" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="11"/>
+      <c r="B472" s="12"/>
+      <c r="E472" s="13"/>
+      <c r="F472" s="13"/>
+    </row>
+    <row r="473" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="11"/>
+      <c r="B473" s="12"/>
+      <c r="E473" s="13"/>
+      <c r="F473" s="13"/>
+    </row>
+    <row r="474" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="11"/>
+      <c r="B474" s="12"/>
+      <c r="E474" s="13"/>
+      <c r="F474" s="13"/>
+    </row>
+    <row r="475" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="11"/>
+      <c r="B475" s="12"/>
+      <c r="E475" s="13"/>
+      <c r="F475" s="13"/>
+    </row>
+    <row r="476" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="11"/>
+      <c r="B476" s="12"/>
+      <c r="E476" s="13"/>
+      <c r="F476" s="13"/>
+    </row>
+    <row r="477" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="11"/>
+      <c r="B477" s="12"/>
+      <c r="E477" s="13"/>
+      <c r="F477" s="13"/>
+    </row>
+    <row r="478" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="11"/>
+      <c r="B478" s="12"/>
+      <c r="E478" s="13"/>
+      <c r="F478" s="13"/>
+    </row>
+    <row r="479" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="11"/>
+      <c r="B479" s="12"/>
+      <c r="E479" s="13"/>
+      <c r="F479" s="13"/>
+    </row>
+    <row r="480" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A480" s="11"/>
+      <c r="B480" s="12"/>
+      <c r="E480" s="13"/>
+      <c r="F480" s="13"/>
+    </row>
+    <row r="481" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A481" s="11"/>
+      <c r="B481" s="12"/>
+      <c r="E481" s="13"/>
+      <c r="F481" s="13"/>
+    </row>
+    <row r="482" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A482" s="11"/>
+      <c r="B482" s="12"/>
+      <c r="E482" s="13"/>
+      <c r="F482" s="13"/>
+    </row>
+    <row r="483" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A483" s="11"/>
+      <c r="B483" s="12"/>
+      <c r="E483" s="13"/>
+      <c r="F483" s="13"/>
+    </row>
+    <row r="484" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A484" s="11"/>
+      <c r="B484" s="12"/>
+      <c r="E484" s="13"/>
+      <c r="F484" s="13"/>
+    </row>
+    <row r="485" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A485" s="11"/>
+      <c r="B485" s="12"/>
+      <c r="E485" s="13"/>
+      <c r="F485" s="13"/>
+    </row>
+    <row r="486" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A486" s="11"/>
+      <c r="B486" s="12"/>
+      <c r="E486" s="13"/>
+      <c r="F486" s="13"/>
+    </row>
+    <row r="487" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A487" s="11"/>
+      <c r="B487" s="12"/>
+      <c r="E487" s="13"/>
+      <c r="F487" s="13"/>
+    </row>
+    <row r="488" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A488" s="11"/>
+      <c r="B488" s="12"/>
+      <c r="E488" s="13"/>
+      <c r="F488" s="13"/>
+    </row>
+    <row r="489" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A489" s="11"/>
+      <c r="B489" s="12"/>
+      <c r="E489" s="13"/>
+      <c r="F489" s="13"/>
+    </row>
+    <row r="490" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A490" s="11"/>
+      <c r="B490" s="12"/>
+      <c r="E490" s="13"/>
+      <c r="F490" s="13"/>
+    </row>
+    <row r="491" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A491" s="11"/>
+      <c r="B491" s="12"/>
+      <c r="E491" s="13"/>
+      <c r="F491" s="13"/>
+    </row>
+    <row r="492" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A492" s="11"/>
+      <c r="B492" s="12"/>
+      <c r="E492" s="13"/>
+      <c r="F492" s="13"/>
+    </row>
+    <row r="493" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="11"/>
+      <c r="B493" s="12"/>
+      <c r="E493" s="13"/>
+      <c r="F493" s="13"/>
+    </row>
+    <row r="494" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="11"/>
+      <c r="B494" s="12"/>
+      <c r="E494" s="13"/>
+      <c r="F494" s="13"/>
+    </row>
+    <row r="495" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="11"/>
+      <c r="B495" s="12"/>
+      <c r="E495" s="13"/>
+      <c r="F495" s="13"/>
+    </row>
+    <row r="496" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="11"/>
+      <c r="B496" s="12"/>
+      <c r="E496" s="13"/>
+      <c r="F496" s="13"/>
+    </row>
+    <row r="497" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A497" s="11"/>
+      <c r="B497" s="12"/>
+      <c r="E497" s="13"/>
+      <c r="F497" s="13"/>
+    </row>
+    <row r="498" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A498" s="11"/>
+      <c r="B498" s="12"/>
+      <c r="E498" s="13"/>
+      <c r="F498" s="13"/>
+    </row>
+    <row r="499" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A499" s="11"/>
+      <c r="B499" s="12"/>
+      <c r="E499" s="13"/>
+      <c r="F499" s="13"/>
+    </row>
+    <row r="500" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A500" s="11"/>
+      <c r="B500" s="12"/>
+      <c r="E500" s="13"/>
+      <c r="F500" s="13"/>
+    </row>
+    <row r="501" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A501" s="11"/>
+      <c r="B501" s="12"/>
+      <c r="E501" s="13"/>
+      <c r="F501" s="13"/>
+    </row>
+    <row r="502" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A502" s="11"/>
+      <c r="B502" s="12"/>
+      <c r="E502" s="13"/>
+      <c r="F502" s="13"/>
+    </row>
+    <row r="503" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A503" s="11"/>
+      <c r="B503" s="12"/>
+      <c r="E503" s="13"/>
+      <c r="F503" s="13"/>
+    </row>
+    <row r="504" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A504" s="11"/>
+      <c r="B504" s="12"/>
+      <c r="E504" s="13"/>
+      <c r="F504" s="13"/>
+    </row>
+    <row r="505" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A505" s="11"/>
+      <c r="B505" s="12"/>
+      <c r="E505" s="13"/>
+      <c r="F505" s="13"/>
+    </row>
+    <row r="506" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A506" s="11"/>
+      <c r="B506" s="12"/>
+      <c r="E506" s="13"/>
+      <c r="F506" s="13"/>
+    </row>
+    <row r="507" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A507" s="11"/>
+      <c r="B507" s="12"/>
+      <c r="E507" s="13"/>
+      <c r="F507" s="13"/>
+    </row>
+    <row r="508" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A508" s="11"/>
+      <c r="B508" s="12"/>
+      <c r="E508" s="13"/>
+      <c r="F508" s="13"/>
+    </row>
+    <row r="509" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="11"/>
+      <c r="B509" s="12"/>
+      <c r="E509" s="13"/>
+      <c r="F509" s="13"/>
+    </row>
+    <row r="510" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="11"/>
+      <c r="B510" s="12"/>
+      <c r="E510" s="13"/>
+      <c r="F510" s="13"/>
+    </row>
+    <row r="511" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="11"/>
+      <c r="B511" s="12"/>
+      <c r="E511" s="13"/>
+      <c r="F511" s="13"/>
+    </row>
+    <row r="512" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A512" s="11"/>
+      <c r="B512" s="12"/>
+      <c r="E512" s="13"/>
+      <c r="F512" s="13"/>
+    </row>
+    <row r="513" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A513" s="11"/>
+      <c r="B513" s="12"/>
+      <c r="E513" s="13"/>
+      <c r="F513" s="13"/>
+    </row>
+    <row r="514" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A514" s="11"/>
+      <c r="B514" s="12"/>
+      <c r="E514" s="13"/>
+      <c r="F514" s="13"/>
+    </row>
+    <row r="515" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A515" s="11"/>
+      <c r="B515" s="12"/>
+      <c r="E515" s="13"/>
+      <c r="F515" s="13"/>
+    </row>
+    <row r="516" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A516" s="11"/>
+      <c r="B516" s="12"/>
+      <c r="E516" s="13"/>
+      <c r="F516" s="13"/>
+    </row>
+    <row r="517" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A517" s="11"/>
+      <c r="B517" s="12"/>
+      <c r="E517" s="13"/>
+      <c r="F517" s="13"/>
+    </row>
+    <row r="518" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A518" s="11"/>
+      <c r="B518" s="12"/>
+      <c r="E518" s="13"/>
+      <c r="F518" s="13"/>
+    </row>
+    <row r="519" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A519" s="11"/>
+      <c r="B519" s="12"/>
+      <c r="E519" s="13"/>
+      <c r="F519" s="13"/>
+    </row>
+    <row r="520" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="11"/>
+      <c r="B520" s="12"/>
+      <c r="E520" s="13"/>
+      <c r="F520" s="13"/>
+    </row>
+    <row r="521" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A521" s="11"/>
+      <c r="B521" s="12"/>
+      <c r="E521" s="13"/>
+      <c r="F521" s="13"/>
+    </row>
+    <row r="522" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A522" s="11"/>
+      <c r="B522" s="12"/>
+      <c r="E522" s="13"/>
+      <c r="F522" s="13"/>
+    </row>
+    <row r="523" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A523" s="11"/>
+      <c r="B523" s="12"/>
+      <c r="E523" s="13"/>
+      <c r="F523" s="13"/>
+    </row>
+    <row r="524" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A524" s="11"/>
+      <c r="B524" s="12"/>
+      <c r="E524" s="13"/>
+      <c r="F524" s="13"/>
+    </row>
+    <row r="525" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A525" s="11"/>
+      <c r="B525" s="12"/>
+      <c r="E525" s="13"/>
+      <c r="F525" s="13"/>
+    </row>
+    <row r="526" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A526" s="11"/>
+      <c r="B526" s="12"/>
+      <c r="E526" s="13"/>
+      <c r="F526" s="13"/>
+    </row>
+    <row r="527" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A527" s="11"/>
+      <c r="B527" s="12"/>
+      <c r="E527" s="13"/>
+      <c r="F527" s="13"/>
+    </row>
+    <row r="528" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A528" s="11"/>
+      <c r="B528" s="12"/>
+      <c r="E528" s="13"/>
+      <c r="F528" s="13"/>
+    </row>
+    <row r="529" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A529" s="11"/>
+      <c r="B529" s="12"/>
+      <c r="E529" s="13"/>
+      <c r="F529" s="13"/>
+    </row>
+    <row r="530" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A530" s="11"/>
+      <c r="B530" s="12"/>
+      <c r="E530" s="13"/>
+      <c r="F530" s="13"/>
+    </row>
+    <row r="531" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A531" s="11"/>
+      <c r="B531" s="12"/>
+      <c r="E531" s="13"/>
+      <c r="F531" s="13"/>
+    </row>
+    <row r="532" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A532" s="11"/>
+      <c r="B532" s="12"/>
+      <c r="E532" s="13"/>
+      <c r="F532" s="13"/>
+    </row>
+    <row r="533" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A533" s="11"/>
+      <c r="B533" s="12"/>
+      <c r="E533" s="13"/>
+      <c r="F533" s="13"/>
+    </row>
+    <row r="534" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A534" s="11"/>
+      <c r="B534" s="12"/>
+      <c r="E534" s="13"/>
+      <c r="F534" s="13"/>
+    </row>
+    <row r="535" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A535" s="11"/>
+      <c r="B535" s="12"/>
+      <c r="E535" s="13"/>
+      <c r="F535" s="13"/>
+    </row>
+    <row r="536" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A536" s="11"/>
+      <c r="B536" s="12"/>
+      <c r="E536" s="13"/>
+      <c r="F536" s="13"/>
+    </row>
+    <row r="537" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A537" s="11"/>
+      <c r="B537" s="12"/>
+      <c r="E537" s="13"/>
+      <c r="F537" s="13"/>
+    </row>
+    <row r="538" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A538" s="11"/>
+      <c r="B538" s="12"/>
+      <c r="E538" s="13"/>
+      <c r="F538" s="13"/>
+    </row>
+    <row r="539" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A539" s="11"/>
+      <c r="B539" s="12"/>
+      <c r="E539" s="13"/>
+      <c r="F539" s="13"/>
+    </row>
+    <row r="540" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A540" s="11"/>
+      <c r="B540" s="12"/>
+      <c r="E540" s="13"/>
+      <c r="F540" s="13"/>
+    </row>
+    <row r="541" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A541" s="11"/>
+      <c r="B541" s="12"/>
+      <c r="E541" s="13"/>
+      <c r="F541" s="13"/>
+    </row>
+    <row r="542" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A542" s="11"/>
+      <c r="B542" s="12"/>
+      <c r="E542" s="13"/>
+      <c r="F542" s="13"/>
+    </row>
+    <row r="543" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A543" s="11"/>
+      <c r="B543" s="12"/>
+      <c r="E543" s="13"/>
+      <c r="F543" s="13"/>
+    </row>
+    <row r="544" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A544" s="11"/>
+      <c r="B544" s="12"/>
+      <c r="E544" s="13"/>
+      <c r="F544" s="13"/>
+    </row>
+    <row r="545" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A545" s="11"/>
+      <c r="B545" s="12"/>
+      <c r="E545" s="13"/>
+      <c r="F545" s="13"/>
+    </row>
+    <row r="546" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A546" s="11"/>
+      <c r="B546" s="12"/>
+      <c r="E546" s="13"/>
+      <c r="F546" s="13"/>
+    </row>
+    <row r="547" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A547" s="11"/>
+      <c r="B547" s="12"/>
+      <c r="E547" s="13"/>
+      <c r="F547" s="13"/>
+    </row>
+    <row r="548" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A548" s="11"/>
+      <c r="B548" s="12"/>
+      <c r="E548" s="13"/>
+      <c r="F548" s="13"/>
+    </row>
+    <row r="549" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A549" s="11"/>
+      <c r="B549" s="12"/>
+      <c r="E549" s="13"/>
+      <c r="F549" s="13"/>
+    </row>
+    <row r="550" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A550" s="11"/>
+      <c r="B550" s="12"/>
+      <c r="E550" s="13"/>
+      <c r="F550" s="13"/>
+    </row>
+    <row r="551" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A551" s="11"/>
+      <c r="B551" s="12"/>
+      <c r="E551" s="13"/>
+      <c r="F551" s="13"/>
+    </row>
+    <row r="552" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A552" s="11"/>
+      <c r="B552" s="12"/>
+      <c r="E552" s="13"/>
+      <c r="F552" s="13"/>
+    </row>
+    <row r="553" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A553" s="11"/>
+      <c r="B553" s="12"/>
+      <c r="E553" s="13"/>
+      <c r="F553" s="13"/>
+    </row>
+    <row r="554" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A554" s="11"/>
+      <c r="B554" s="12"/>
+      <c r="E554" s="13"/>
+      <c r="F554" s="13"/>
+    </row>
+    <row r="555" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A555" s="11"/>
+      <c r="B555" s="12"/>
+      <c r="E555" s="13"/>
+      <c r="F555" s="13"/>
+    </row>
+    <row r="556" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A556" s="11"/>
+      <c r="B556" s="12"/>
+      <c r="E556" s="13"/>
+      <c r="F556" s="13"/>
+    </row>
+    <row r="557" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A557" s="11"/>
+      <c r="B557" s="12"/>
+      <c r="E557" s="13"/>
+      <c r="F557" s="13"/>
+    </row>
+    <row r="558" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A558" s="11"/>
+      <c r="B558" s="12"/>
+      <c r="E558" s="13"/>
+      <c r="F558" s="13"/>
+    </row>
+    <row r="559" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A559" s="11"/>
+      <c r="B559" s="12"/>
+      <c r="E559" s="13"/>
+      <c r="F559" s="13"/>
+    </row>
+    <row r="560" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A560" s="11"/>
+      <c r="B560" s="12"/>
+      <c r="E560" s="13"/>
+      <c r="F560" s="13"/>
+    </row>
+    <row r="561" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A561" s="11"/>
+      <c r="B561" s="12"/>
+      <c r="E561" s="13"/>
+      <c r="F561" s="13"/>
+    </row>
+    <row r="562" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A562" s="11"/>
+      <c r="B562" s="12"/>
+      <c r="E562" s="13"/>
+      <c r="F562" s="13"/>
+    </row>
+    <row r="563" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A563" s="11"/>
+      <c r="B563" s="12"/>
+      <c r="E563" s="13"/>
+      <c r="F563" s="13"/>
+    </row>
+    <row r="564" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A564" s="11"/>
+      <c r="B564" s="12"/>
+      <c r="E564" s="13"/>
+      <c r="F564" s="13"/>
+    </row>
+    <row r="565" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A565" s="11"/>
+      <c r="B565" s="12"/>
+      <c r="E565" s="13"/>
+      <c r="F565" s="13"/>
+    </row>
+    <row r="566" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A566" s="11"/>
+      <c r="B566" s="12"/>
+      <c r="E566" s="13"/>
+      <c r="F566" s="13"/>
+    </row>
+    <row r="567" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A567" s="11"/>
+      <c r="B567" s="12"/>
+      <c r="E567" s="13"/>
+      <c r="F567" s="13"/>
+    </row>
+    <row r="568" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A568" s="11"/>
+      <c r="B568" s="12"/>
+      <c r="E568" s="13"/>
+      <c r="F568" s="13"/>
+    </row>
+    <row r="569" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A569" s="11"/>
+      <c r="B569" s="12"/>
+      <c r="E569" s="13"/>
+      <c r="F569" s="13"/>
+    </row>
+    <row r="570" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A570" s="11"/>
+      <c r="B570" s="12"/>
+      <c r="E570" s="13"/>
+      <c r="F570" s="13"/>
+    </row>
+    <row r="571" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A571" s="11"/>
+      <c r="B571" s="12"/>
+      <c r="E571" s="13"/>
+      <c r="F571" s="13"/>
+    </row>
+    <row r="572" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A572" s="11"/>
+      <c r="B572" s="12"/>
+      <c r="E572" s="13"/>
+      <c r="F572" s="13"/>
+    </row>
+    <row r="573" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A573" s="11"/>
+      <c r="B573" s="12"/>
+      <c r="E573" s="13"/>
+      <c r="F573" s="13"/>
+    </row>
+    <row r="574" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A574" s="11"/>
+      <c r="B574" s="12"/>
+      <c r="E574" s="13"/>
+      <c r="F574" s="13"/>
+    </row>
+    <row r="575" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A575" s="11"/>
+      <c r="B575" s="12"/>
+      <c r="E575" s="13"/>
+      <c r="F575" s="13"/>
+    </row>
+    <row r="576" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A576" s="11"/>
+      <c r="B576" s="12"/>
+      <c r="E576" s="13"/>
+      <c r="F576" s="13"/>
+    </row>
+    <row r="577" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A577" s="11"/>
+      <c r="B577" s="12"/>
+      <c r="E577" s="13"/>
+      <c r="F577" s="13"/>
+    </row>
+    <row r="578" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A578" s="11"/>
+      <c r="B578" s="12"/>
+      <c r="E578" s="13"/>
+      <c r="F578" s="13"/>
+    </row>
+    <row r="579" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A579" s="11"/>
+      <c r="B579" s="12"/>
+      <c r="E579" s="13"/>
+      <c r="F579" s="13"/>
+    </row>
+    <row r="580" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A580" s="11"/>
+      <c r="B580" s="12"/>
+      <c r="E580" s="13"/>
+      <c r="F580" s="13"/>
+    </row>
+    <row r="581" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A581" s="11"/>
+      <c r="B581" s="12"/>
+      <c r="E581" s="13"/>
+      <c r="F581" s="13"/>
+    </row>
+    <row r="582" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A582" s="11"/>
+      <c r="B582" s="12"/>
+      <c r="E582" s="13"/>
+      <c r="F582" s="13"/>
+    </row>
+    <row r="583" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A583" s="11"/>
+      <c r="B583" s="12"/>
+      <c r="E583" s="13"/>
+      <c r="F583" s="13"/>
+    </row>
+    <row r="584" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A584" s="11"/>
+      <c r="B584" s="12"/>
+      <c r="E584" s="13"/>
+      <c r="F584" s="13"/>
+    </row>
+    <row r="585" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A585" s="11"/>
+      <c r="B585" s="12"/>
+      <c r="E585" s="13"/>
+      <c r="F585" s="13"/>
+    </row>
+    <row r="586" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A586" s="11"/>
+      <c r="B586" s="12"/>
+      <c r="E586" s="13"/>
+      <c r="F586" s="13"/>
+    </row>
+    <row r="587" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A587" s="11"/>
+      <c r="B587" s="12"/>
+      <c r="E587" s="13"/>
+      <c r="F587" s="13"/>
+    </row>
+    <row r="588" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A588" s="11"/>
+      <c r="B588" s="12"/>
+      <c r="E588" s="13"/>
+      <c r="F588" s="13"/>
+    </row>
+    <row r="589" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A589" s="11"/>
+      <c r="B589" s="12"/>
+      <c r="E589" s="13"/>
+      <c r="F589" s="13"/>
+    </row>
+    <row r="590" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A590" s="11"/>
+      <c r="B590" s="12"/>
+      <c r="E590" s="13"/>
+      <c r="F590" s="13"/>
+    </row>
+    <row r="591" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A591" s="11"/>
+      <c r="B591" s="12"/>
+      <c r="E591" s="13"/>
+      <c r="F591" s="13"/>
+    </row>
+    <row r="592" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A592" s="11"/>
+      <c r="B592" s="12"/>
+      <c r="E592" s="13"/>
+      <c r="F592" s="13"/>
+    </row>
+    <row r="593" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A593" s="11"/>
+      <c r="B593" s="12"/>
+      <c r="E593" s="13"/>
+      <c r="F593" s="13"/>
+    </row>
+    <row r="594" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A594" s="11"/>
+      <c r="B594" s="12"/>
+      <c r="E594" s="13"/>
+      <c r="F594" s="13"/>
+    </row>
+    <row r="595" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A595" s="11"/>
+      <c r="B595" s="12"/>
+      <c r="E595" s="13"/>
+      <c r="F595" s="13"/>
+    </row>
+    <row r="596" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A596" s="11"/>
+      <c r="B596" s="12"/>
+      <c r="E596" s="13"/>
+      <c r="F596" s="13"/>
+    </row>
+    <row r="597" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A597" s="11"/>
+      <c r="B597" s="12"/>
+      <c r="E597" s="13"/>
+      <c r="F597" s="13"/>
+    </row>
+    <row r="598" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A598" s="11"/>
+      <c r="B598" s="12"/>
+      <c r="E598" s="13"/>
+      <c r="F598" s="13"/>
+    </row>
+    <row r="599" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A599" s="11"/>
+      <c r="B599" s="12"/>
+      <c r="E599" s="13"/>
+      <c r="F599" s="13"/>
+    </row>
+    <row r="600" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A600" s="11"/>
+      <c r="B600" s="12"/>
+      <c r="E600" s="13"/>
+      <c r="F600" s="13"/>
+    </row>
+    <row r="601" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A601" s="11"/>
+      <c r="B601" s="12"/>
+      <c r="E601" s="13"/>
+      <c r="F601" s="13"/>
+    </row>
+    <row r="602" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A602" s="11"/>
+      <c r="B602" s="12"/>
+      <c r="E602" s="13"/>
+      <c r="F602" s="13"/>
+    </row>
+    <row r="603" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A603" s="11"/>
+      <c r="B603" s="12"/>
+      <c r="E603" s="13"/>
+      <c r="F603" s="13"/>
+    </row>
+    <row r="604" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A604" s="11"/>
+      <c r="B604" s="12"/>
+      <c r="E604" s="13"/>
+      <c r="F604" s="13"/>
+    </row>
+    <row r="605" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A605" s="11"/>
+      <c r="B605" s="12"/>
+      <c r="E605" s="13"/>
+      <c r="F605" s="13"/>
+    </row>
+    <row r="606" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A606" s="11"/>
+      <c r="B606" s="12"/>
+      <c r="E606" s="13"/>
+      <c r="F606" s="13"/>
+    </row>
+    <row r="607" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A607" s="11"/>
+      <c r="B607" s="12"/>
+      <c r="E607" s="13"/>
+      <c r="F607" s="13"/>
+    </row>
+    <row r="608" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A608" s="11"/>
+      <c r="B608" s="12"/>
+      <c r="E608" s="13"/>
+      <c r="F608" s="13"/>
+    </row>
+    <row r="609" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A609" s="11"/>
+      <c r="B609" s="12"/>
+      <c r="E609" s="13"/>
+      <c r="F609" s="13"/>
+    </row>
+    <row r="610" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A610" s="11"/>
+      <c r="B610" s="12"/>
+      <c r="E610" s="13"/>
+      <c r="F610" s="13"/>
+    </row>
+    <row r="611" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A611" s="11"/>
+      <c r="B611" s="12"/>
+      <c r="E611" s="13"/>
+      <c r="F611" s="13"/>
+    </row>
+    <row r="612" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A612" s="11"/>
+      <c r="B612" s="12"/>
+      <c r="E612" s="13"/>
+      <c r="F612" s="13"/>
+    </row>
+    <row r="613" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A613" s="11"/>
+      <c r="B613" s="12"/>
+      <c r="E613" s="13"/>
+      <c r="F613" s="13"/>
+    </row>
+    <row r="614" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A614" s="11"/>
+      <c r="B614" s="12"/>
+      <c r="E614" s="13"/>
+      <c r="F614" s="13"/>
+    </row>
+    <row r="615" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A615" s="11"/>
+      <c r="B615" s="12"/>
+      <c r="E615" s="13"/>
+      <c r="F615" s="13"/>
+    </row>
+    <row r="616" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A616" s="11"/>
+      <c r="B616" s="12"/>
+      <c r="E616" s="13"/>
+      <c r="F616" s="13"/>
+    </row>
+    <row r="617" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A617" s="11"/>
+      <c r="B617" s="12"/>
+      <c r="E617" s="13"/>
+      <c r="F617" s="13"/>
+    </row>
+    <row r="618" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A618" s="11"/>
+      <c r="B618" s="12"/>
+      <c r="E618" s="13"/>
+      <c r="F618" s="13"/>
+    </row>
+    <row r="619" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A619" s="11"/>
+      <c r="B619" s="12"/>
+      <c r="E619" s="13"/>
+      <c r="F619" s="13"/>
+    </row>
+    <row r="620" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A620" s="11"/>
+      <c r="B620" s="12"/>
+      <c r="E620" s="13"/>
+      <c r="F620" s="13"/>
+    </row>
+    <row r="621" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A621" s="11"/>
+      <c r="B621" s="12"/>
+      <c r="E621" s="13"/>
+      <c r="F621" s="13"/>
+    </row>
+    <row r="622" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A622" s="11"/>
+      <c r="B622" s="12"/>
+      <c r="E622" s="13"/>
+      <c r="F622" s="13"/>
+    </row>
+    <row r="623" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A623" s="11"/>
+      <c r="B623" s="12"/>
+      <c r="E623" s="13"/>
+      <c r="F623" s="13"/>
+    </row>
+    <row r="624" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A624" s="11"/>
+      <c r="B624" s="12"/>
+      <c r="E624" s="13"/>
+      <c r="F624" s="13"/>
+    </row>
+    <row r="625" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A625" s="11"/>
+      <c r="B625" s="12"/>
+      <c r="E625" s="13"/>
+      <c r="F625" s="13"/>
+    </row>
+    <row r="626" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A626" s="11"/>
+      <c r="B626" s="12"/>
+      <c r="E626" s="13"/>
+      <c r="F626" s="13"/>
+    </row>
+    <row r="627" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A627" s="11"/>
+      <c r="B627" s="12"/>
+      <c r="E627" s="13"/>
+      <c r="F627" s="13"/>
+    </row>
+    <row r="628" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A628" s="11"/>
+      <c r="B628" s="12"/>
+      <c r="E628" s="13"/>
+      <c r="F628" s="13"/>
+    </row>
+    <row r="629" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A629" s="11"/>
+      <c r="B629" s="12"/>
+      <c r="E629" s="13"/>
+      <c r="F629" s="13"/>
+    </row>
+    <row r="630" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A630" s="11"/>
+      <c r="B630" s="12"/>
+      <c r="E630" s="13"/>
+      <c r="F630" s="13"/>
+    </row>
+    <row r="631" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A631" s="11"/>
+      <c r="B631" s="12"/>
+      <c r="E631" s="13"/>
+      <c r="F631" s="13"/>
+    </row>
+    <row r="632" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A632" s="11"/>
+      <c r="B632" s="12"/>
+      <c r="E632" s="13"/>
+      <c r="F632" s="13"/>
+    </row>
+    <row r="633" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A633" s="11"/>
+      <c r="B633" s="12"/>
+      <c r="E633" s="13"/>
+      <c r="F633" s="13"/>
+    </row>
+    <row r="634" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A634" s="11"/>
+      <c r="B634" s="12"/>
+      <c r="E634" s="13"/>
+      <c r="F634" s="13"/>
+    </row>
+    <row r="635" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A635" s="11"/>
+      <c r="B635" s="12"/>
+      <c r="E635" s="13"/>
+      <c r="F635" s="13"/>
+    </row>
+    <row r="636" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A636" s="11"/>
+      <c r="B636" s="12"/>
+      <c r="E636" s="13"/>
+      <c r="F636" s="13"/>
+    </row>
+    <row r="637" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A637" s="11"/>
+      <c r="B637" s="12"/>
+      <c r="E637" s="13"/>
+      <c r="F637" s="13"/>
+    </row>
+    <row r="638" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A638" s="11"/>
+      <c r="B638" s="12"/>
+      <c r="E638" s="13"/>
+      <c r="F638" s="13"/>
+    </row>
+    <row r="639" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A639" s="11"/>
+      <c r="B639" s="12"/>
+      <c r="E639" s="13"/>
+      <c r="F639" s="13"/>
+    </row>
+    <row r="640" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A640" s="11"/>
+      <c r="B640" s="12"/>
+      <c r="E640" s="13"/>
+      <c r="F640" s="13"/>
+    </row>
+    <row r="641" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A641" s="11"/>
+      <c r="B641" s="12"/>
+      <c r="E641" s="13"/>
+      <c r="F641" s="13"/>
+    </row>
+    <row r="642" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A642" s="11"/>
+      <c r="B642" s="12"/>
+      <c r="E642" s="13"/>
+      <c r="F642" s="13"/>
+    </row>
+    <row r="643" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A643" s="11"/>
+      <c r="B643" s="12"/>
+      <c r="E643" s="13"/>
+      <c r="F643" s="13"/>
+    </row>
+    <row r="644" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A644" s="11"/>
+      <c r="B644" s="12"/>
+      <c r="E644" s="13"/>
+      <c r="F644" s="13"/>
+    </row>
+    <row r="645" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A645" s="11"/>
+      <c r="B645" s="12"/>
+      <c r="E645" s="13"/>
+      <c r="F645" s="13"/>
+    </row>
+    <row r="646" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A646" s="11"/>
+      <c r="B646" s="12"/>
+      <c r="E646" s="13"/>
+      <c r="F646" s="13"/>
+    </row>
+    <row r="647" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A647" s="11"/>
+      <c r="B647" s="12"/>
+      <c r="E647" s="13"/>
+      <c r="F647" s="13"/>
+    </row>
+    <row r="648" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A648" s="11"/>
+      <c r="B648" s="12"/>
+      <c r="E648" s="13"/>
+      <c r="F648" s="13"/>
+    </row>
+    <row r="649" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A649" s="11"/>
+      <c r="B649" s="12"/>
+      <c r="E649" s="13"/>
+      <c r="F649" s="13"/>
+    </row>
+    <row r="650" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A650" s="11"/>
+      <c r="B650" s="12"/>
+      <c r="E650" s="13"/>
+      <c r="F650" s="13"/>
+    </row>
+    <row r="651" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A651" s="11"/>
+      <c r="B651" s="12"/>
+      <c r="E651" s="13"/>
+      <c r="F651" s="13"/>
+    </row>
+    <row r="652" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A652" s="11"/>
+      <c r="B652" s="12"/>
+      <c r="E652" s="13"/>
+      <c r="F652" s="13"/>
+    </row>
+    <row r="653" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A653" s="11"/>
+      <c r="B653" s="12"/>
+      <c r="E653" s="13"/>
+      <c r="F653" s="13"/>
+    </row>
+    <row r="654" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A654" s="11"/>
+      <c r="B654" s="12"/>
+      <c r="E654" s="13"/>
+      <c r="F654" s="13"/>
+    </row>
+    <row r="655" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A655" s="11"/>
+      <c r="B655" s="12"/>
+      <c r="E655" s="13"/>
+      <c r="F655" s="13"/>
+    </row>
+    <row r="656" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A656" s="11"/>
+      <c r="B656" s="12"/>
+      <c r="E656" s="13"/>
+      <c r="F656" s="13"/>
+    </row>
+    <row r="657" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A657" s="11"/>
+      <c r="B657" s="12"/>
+      <c r="E657" s="13"/>
+      <c r="F657" s="13"/>
+    </row>
+    <row r="658" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A658" s="11"/>
+      <c r="B658" s="12"/>
+      <c r="E658" s="13"/>
+      <c r="F658" s="13"/>
+    </row>
+    <row r="659" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A659" s="11"/>
+      <c r="B659" s="12"/>
+      <c r="E659" s="13"/>
+      <c r="F659" s="13"/>
+    </row>
+    <row r="660" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A660" s="11"/>
+      <c r="B660" s="12"/>
+      <c r="E660" s="13"/>
+      <c r="F660" s="13"/>
+    </row>
+    <row r="661" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A661" s="11"/>
+      <c r="B661" s="12"/>
+      <c r="E661" s="13"/>
+      <c r="F661" s="13"/>
+    </row>
+    <row r="662" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A662" s="11"/>
+      <c r="B662" s="12"/>
+      <c r="E662" s="13"/>
+      <c r="F662" s="13"/>
+    </row>
+    <row r="663" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A663" s="11"/>
+      <c r="B663" s="12"/>
+      <c r="E663" s="13"/>
+      <c r="F663" s="13"/>
+    </row>
+    <row r="664" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A664" s="11"/>
+      <c r="B664" s="12"/>
+      <c r="E664" s="13"/>
+      <c r="F664" s="13"/>
+    </row>
+    <row r="665" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A665" s="11"/>
+      <c r="B665" s="12"/>
+      <c r="E665" s="13"/>
+      <c r="F665" s="13"/>
+    </row>
+    <row r="666" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A666" s="11"/>
+      <c r="B666" s="12"/>
+      <c r="E666" s="13"/>
+      <c r="F666" s="13"/>
+    </row>
+    <row r="667" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A667" s="11"/>
+      <c r="B667" s="12"/>
+      <c r="E667" s="13"/>
+      <c r="F667" s="13"/>
+    </row>
+    <row r="668" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A668" s="11"/>
+      <c r="B668" s="12"/>
+      <c r="E668" s="13"/>
+      <c r="F668" s="13"/>
+    </row>
+    <row r="669" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A669" s="11"/>
+      <c r="B669" s="12"/>
+      <c r="E669" s="13"/>
+      <c r="F669" s="13"/>
+    </row>
+    <row r="670" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A670" s="11"/>
+      <c r="B670" s="12"/>
+      <c r="E670" s="13"/>
+      <c r="F670" s="13"/>
+    </row>
+    <row r="671" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A671" s="11"/>
+      <c r="B671" s="12"/>
+      <c r="E671" s="13"/>
+      <c r="F671" s="13"/>
+    </row>
+    <row r="672" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A672" s="11"/>
+      <c r="B672" s="12"/>
+      <c r="E672" s="13"/>
+      <c r="F672" s="13"/>
+    </row>
+    <row r="673" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A673" s="11"/>
+      <c r="B673" s="12"/>
+      <c r="E673" s="13"/>
+      <c r="F673" s="13"/>
+    </row>
+    <row r="674" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A674" s="11"/>
+      <c r="B674" s="12"/>
+      <c r="E674" s="13"/>
+      <c r="F674" s="13"/>
+    </row>
+    <row r="675" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A675" s="11"/>
+      <c r="B675" s="12"/>
+      <c r="E675" s="13"/>
+      <c r="F675" s="13"/>
+    </row>
+    <row r="676" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A676" s="11"/>
+      <c r="B676" s="12"/>
+      <c r="E676" s="13"/>
+      <c r="F676" s="13"/>
+    </row>
+    <row r="677" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A677" s="11"/>
+      <c r="B677" s="12"/>
+      <c r="E677" s="13"/>
+      <c r="F677" s="13"/>
+    </row>
+    <row r="678" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A678" s="11"/>
+      <c r="B678" s="12"/>
+      <c r="E678" s="13"/>
+      <c r="F678" s="13"/>
+    </row>
+    <row r="679" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A679" s="11"/>
+      <c r="B679" s="12"/>
+      <c r="E679" s="13"/>
+      <c r="F679" s="13"/>
+    </row>
+    <row r="680" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A680" s="11"/>
+      <c r="B680" s="12"/>
+      <c r="E680" s="13"/>
+      <c r="F680" s="13"/>
+    </row>
+    <row r="681" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A681" s="11"/>
+      <c r="B681" s="12"/>
+      <c r="E681" s="13"/>
+      <c r="F681" s="13"/>
+    </row>
+    <row r="682" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A682" s="11"/>
+      <c r="B682" s="12"/>
+      <c r="E682" s="13"/>
+      <c r="F682" s="13"/>
+    </row>
+    <row r="683" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A683" s="11"/>
+      <c r="B683" s="12"/>
+      <c r="E683" s="13"/>
+      <c r="F683" s="13"/>
+    </row>
+    <row r="684" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A684" s="11"/>
+      <c r="B684" s="12"/>
+      <c r="E684" s="13"/>
+      <c r="F684" s="13"/>
+    </row>
+    <row r="685" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A685" s="11"/>
+      <c r="B685" s="12"/>
+      <c r="E685" s="13"/>
+      <c r="F685" s="13"/>
+    </row>
+    <row r="686" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A686" s="11"/>
+      <c r="B686" s="12"/>
+      <c r="E686" s="13"/>
+      <c r="F686" s="13"/>
+    </row>
+    <row r="687" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A687" s="11"/>
+      <c r="B687" s="12"/>
+      <c r="E687" s="13"/>
+      <c r="F687" s="13"/>
+    </row>
+    <row r="688" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A688" s="11"/>
+      <c r="B688" s="12"/>
+      <c r="E688" s="13"/>
+      <c r="F688" s="13"/>
+    </row>
+    <row r="689" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A689" s="11"/>
+      <c r="B689" s="12"/>
+      <c r="E689" s="13"/>
+      <c r="F689" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:B2"/>
@@ -14344,6 +18898,12 @@
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="I5:I8"/>
     <mergeCell ref="J5:J8"/>
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5 J9">
